--- a/NEWRat_102_ChR2_MT-partial-5mW_21-07-2017.xlsx
+++ b/NEWRat_102_ChR2_MT-partial-5mW_21-07-2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>trial</t>
   </si>
@@ -22,370 +22,7 @@
     <t>MT 3</t>
   </si>
   <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>1499</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>1215</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>1183</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>485</t>
-  </si>
-  <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>756</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
     <t>MT 3 Laser</t>
-  </si>
-  <si>
-    <t>695</t>
-  </si>
-  <si>
-    <t>715</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>724</t>
-  </si>
-  <si>
-    <t>837</t>
-  </si>
-  <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>869</t>
-  </si>
-  <si>
-    <t>1036</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>718</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>766</t>
-  </si>
-  <si>
-    <t>744</t>
-  </si>
-  <si>
-    <t>597</t>
-  </si>
-  <si>
-    <t>717</t>
-  </si>
-  <si>
-    <t>659</t>
-  </si>
-  <si>
-    <t>713</t>
-  </si>
-  <si>
-    <t>752</t>
-  </si>
-  <si>
-    <t>714</t>
-  </si>
-  <si>
-    <t>839</t>
-  </si>
-  <si>
-    <t>634</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>992</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>826</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>790</t>
-  </si>
-  <si>
-    <t>819</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>859</t>
-  </si>
-  <si>
-    <t>792</t>
   </si>
   <si>
     <t>MT 4</t>
@@ -397,322 +34,7 @@
     <t>RT 1</t>
   </si>
   <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>491</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>1371</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>1134</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>669</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>1417</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
     <t>RT 2</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>200</t>
   </si>
   <si>
     <t>RT 3</t>
@@ -724,9 +46,6 @@
     <t>RT 4</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>RT-MT 1</t>
   </si>
   <si>
@@ -736,568 +55,16 @@
     <t>RT-MT 2</t>
   </si>
   <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>462</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>481</t>
-  </si>
-  <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>421</t>
-  </si>
-  <si>
-    <t>479</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>1202</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>475</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>484</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>853</t>
-  </si>
-  <si>
-    <t>477</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>415</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>386</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>980</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
     <t>RT-MT2 Laser</t>
-  </si>
-  <si>
-    <t>1070</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>904</t>
-  </si>
-  <si>
-    <t>983</t>
-  </si>
-  <si>
-    <t>907</t>
-  </si>
-  <si>
-    <t>887</t>
-  </si>
-  <si>
-    <t>996</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>824</t>
-  </si>
-  <si>
-    <t>843</t>
-  </si>
-  <si>
-    <t>852</t>
-  </si>
-  <si>
-    <t>1059</t>
-  </si>
-  <si>
-    <t>998</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>834</t>
-  </si>
-  <si>
-    <t>1093</t>
-  </si>
-  <si>
-    <t>928</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>1142</t>
-  </si>
-  <si>
-    <t>954</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>649</t>
-  </si>
-  <si>
-    <t>958</t>
-  </si>
-  <si>
-    <t>964</t>
-  </si>
-  <si>
-    <t>939</t>
-  </si>
-  <si>
-    <t>1061</t>
-  </si>
-  <si>
-    <t>965</t>
-  </si>
-  <si>
-    <t>1064</t>
-  </si>
-  <si>
-    <t>1279</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1076</t>
-  </si>
-  <si>
-    <t>966</t>
-  </si>
-  <si>
-    <t>978</t>
-  </si>
-  <si>
-    <t>1071</t>
-  </si>
-  <si>
-    <t>914</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>1074</t>
-  </si>
-  <si>
-    <t>1199</t>
-  </si>
-  <si>
-    <t>967</t>
-  </si>
-  <si>
-    <t>871</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>856</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>901</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>924</t>
-  </si>
-  <si>
-    <t>1162</t>
-  </si>
-  <si>
-    <t>997</t>
-  </si>
-  <si>
-    <t>1086</t>
-  </si>
-  <si>
-    <t>942</t>
-  </si>
-  <si>
-    <t>1148</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>1048</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>961</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>957</t>
-  </si>
-  <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>1066</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>1255</t>
-  </si>
-  <si>
-    <t>1098</t>
-  </si>
-  <si>
-    <t>1088</t>
   </si>
   <si>
     <t>RT1 Laser</t>
   </si>
   <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
     <t>RT2 Laser</t>
   </si>
   <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
     <t>RT4 Laser</t>
-  </si>
-  <si>
-    <t>116</t>
   </si>
 </sst>
 </file>
@@ -1643,57 +410,57 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>235</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>404</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>414</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>426</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>254</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1757,8 +524,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>50</v>
+      <c r="F3">
+        <v>175</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1813,8 +580,8 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>195</v>
+      <c r="G4">
+        <v>157</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1831,8 +598,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>240</v>
+      <c r="M4">
+        <v>420</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1866,8 +633,8 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>161</v>
+      <c r="G5">
+        <v>246</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1884,8 +651,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>241</v>
+      <c r="M5">
+        <v>462</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1904,8 +671,8 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
+      <c r="B6">
+        <v>306</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1940,14 +707,14 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" t="s">
-        <v>335</v>
+      <c r="N6">
+        <v>1070</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" t="s">
-        <v>206</v>
+      <c r="P6">
+        <v>230</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1969,8 +736,8 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>127</v>
+      <c r="F7">
+        <v>280</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2025,8 +792,8 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>176</v>
+      <c r="G8">
+        <v>5</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2043,8 +810,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>178</v>
+      <c r="M8">
+        <v>180</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2099,14 +866,14 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" t="s">
-        <v>336</v>
+      <c r="N9">
+        <v>935</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
-        <v>415</v>
+      <c r="P9">
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2116,8 +883,8 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
+      <c r="B10">
+        <v>219</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2131,8 +898,8 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
-        <v>196</v>
+      <c r="G10">
+        <v>78</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2149,8 +916,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>242</v>
+      <c r="M10">
+        <v>361</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2181,8 +948,8 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>128</v>
+      <c r="F11">
+        <v>184</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2237,8 +1004,8 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>197</v>
+      <c r="G12">
+        <v>547</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2255,8 +1022,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>243</v>
+      <c r="M12">
+        <v>1026</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2311,14 +1078,14 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13" t="s">
-        <v>337</v>
+      <c r="N13">
+        <v>904</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" t="s">
-        <v>82</v>
+      <c r="P13">
+        <v>213</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2328,8 +1095,8 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
+      <c r="B14">
+        <v>193</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2343,8 +1110,8 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>50</v>
+      <c r="G14">
+        <v>175</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2361,8 +1128,8 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>244</v>
+      <c r="M14">
+        <v>424</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2393,8 +1160,8 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>129</v>
+      <c r="F15">
+        <v>234</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2437,8 +1204,8 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>86</v>
+      <c r="C16">
+        <v>695</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2458,8 +1225,8 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>230</v>
+      <c r="J16">
+        <v>181</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2523,14 +1290,14 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17" t="s">
-        <v>338</v>
+      <c r="N17">
+        <v>983</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" t="s">
-        <v>178</v>
+      <c r="P17">
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2579,8 +1346,8 @@
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18" t="s">
-        <v>214</v>
+      <c r="O18">
+        <v>243</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2629,14 +1396,14 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" t="s">
-        <v>339</v>
+      <c r="N19">
+        <v>907</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" t="s">
-        <v>152</v>
+      <c r="P19">
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2661,8 +1428,8 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>71</v>
+      <c r="G20">
+        <v>220</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2679,8 +1446,8 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>245</v>
+      <c r="M20">
+        <v>436</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2714,7 +1481,7 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21">
         <v>198</v>
       </c>
       <c r="H21">
@@ -2732,8 +1499,8 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>246</v>
+      <c r="M21">
+        <v>428</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2752,8 +1519,8 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
+      <c r="B22">
+        <v>288</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2767,8 +1534,8 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>199</v>
+      <c r="G22">
+        <v>279</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2785,8 +1552,8 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
-        <v>247</v>
+      <c r="M22">
+        <v>476</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2841,14 +1608,14 @@
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="N23" t="s">
-        <v>340</v>
+      <c r="N23">
+        <v>887</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" t="s">
-        <v>416</v>
+      <c r="P23">
+        <v>66</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2870,8 +1637,8 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>130</v>
+      <c r="F24">
+        <v>303</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2926,8 +1693,8 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>200</v>
+      <c r="G25">
+        <v>173</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2944,8 +1711,8 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="s">
-        <v>248</v>
+      <c r="M25">
+        <v>425</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2964,8 +1731,8 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
+      <c r="B26">
+        <v>255</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3000,14 +1767,14 @@
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="N26" t="s">
-        <v>341</v>
+      <c r="N26">
+        <v>996</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26" t="s">
-        <v>54</v>
+      <c r="P26">
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3053,14 +1820,14 @@
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27" t="s">
-        <v>342</v>
+      <c r="N27">
+        <v>910</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="P27" t="s">
-        <v>36</v>
+      <c r="P27">
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3082,8 +1849,8 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" t="s">
-        <v>62</v>
+      <c r="F28">
+        <v>211</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3159,14 +1926,14 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29" t="s">
-        <v>343</v>
+      <c r="N29">
+        <v>890</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29" t="s">
-        <v>54</v>
+      <c r="P29">
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3191,8 +1958,8 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>30</v>
+      <c r="G30">
+        <v>256</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3209,8 +1976,8 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>249</v>
+      <c r="M30">
+        <v>519</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3229,8 +1996,8 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
+      <c r="B31">
+        <v>1499</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3253,8 +2020,8 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
-        <v>236</v>
+      <c r="J31">
+        <v>36</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3297,8 +2064,8 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>132</v>
+      <c r="G32">
+        <v>151</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3315,8 +2082,8 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>250</v>
+      <c r="M32">
+        <v>391</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3371,14 +2138,14 @@
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33" t="s">
-        <v>344</v>
+      <c r="N33">
+        <v>1107</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33" t="s">
-        <v>5</v>
+      <c r="P33">
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -3400,8 +2167,8 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" t="s">
-        <v>131</v>
+      <c r="F34">
+        <v>227</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3477,14 +2244,14 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="N35" t="s">
-        <v>345</v>
+      <c r="N35">
+        <v>824</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
-      <c r="P35" t="s">
-        <v>150</v>
+      <c r="P35">
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -3497,8 +2264,8 @@
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" t="s">
-        <v>87</v>
+      <c r="C36">
+        <v>715</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3530,14 +2297,14 @@
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36" t="s">
-        <v>346</v>
+      <c r="N36">
+        <v>843</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
-      <c r="P36" t="s">
-        <v>65</v>
+      <c r="P36">
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3550,8 +2317,8 @@
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
-        <v>88</v>
+      <c r="C37">
+        <v>806</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3562,8 +2329,8 @@
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" t="s">
-        <v>201</v>
+      <c r="G37">
+        <v>269</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3580,8 +2347,8 @@
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>251</v>
+      <c r="M37">
+        <v>482</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3615,8 +2382,8 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" t="s">
-        <v>62</v>
+      <c r="G38">
+        <v>211</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3633,8 +2400,8 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
-        <v>252</v>
+      <c r="M38">
+        <v>454</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3692,8 +2459,8 @@
       <c r="N39">
         <v>0</v>
       </c>
-      <c r="O39" t="s">
-        <v>43</v>
+      <c r="O39">
+        <v>203</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -3745,8 +2512,8 @@
       <c r="N40">
         <v>0</v>
       </c>
-      <c r="O40" t="s">
-        <v>405</v>
+      <c r="O40">
+        <v>265</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3759,8 +2526,8 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>9</v>
+      <c r="B41">
+        <v>238</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3774,8 +2541,8 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" t="s">
-        <v>142</v>
+      <c r="G41">
+        <v>14</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3792,8 +2559,8 @@
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
-        <v>253</v>
+      <c r="M41">
+        <v>261</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3827,8 +2594,8 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" t="s">
-        <v>13</v>
+      <c r="G42">
+        <v>206</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3845,8 +2612,8 @@
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
-        <v>254</v>
+      <c r="M42">
+        <v>427</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3901,14 +2668,14 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" t="s">
-        <v>347</v>
+      <c r="N43">
+        <v>852</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
-      <c r="P43" t="s">
-        <v>163</v>
+      <c r="P43">
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3918,8 +2685,8 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
+      <c r="B44">
+        <v>286</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3930,8 +2697,8 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" t="s">
-        <v>132</v>
+      <c r="F44">
+        <v>151</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3986,8 +2753,8 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" t="s">
-        <v>192</v>
+      <c r="G45">
+        <v>143</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4004,8 +2771,8 @@
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
-        <v>255</v>
+      <c r="M45">
+        <v>347</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -4060,14 +2827,14 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46" t="s">
-        <v>348</v>
+      <c r="N46">
+        <v>1059</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="P46" t="s">
-        <v>200</v>
+      <c r="P46">
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4089,8 +2856,8 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" t="s">
-        <v>133</v>
+      <c r="F47">
+        <v>210</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4166,14 +2933,14 @@
       <c r="M48">
         <v>0</v>
       </c>
-      <c r="N48" t="s">
-        <v>349</v>
+      <c r="N48">
+        <v>998</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48" t="s">
-        <v>158</v>
+      <c r="P48">
+        <v>235</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -4183,8 +2950,8 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>11</v>
+      <c r="B49">
+        <v>1215</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -4219,14 +2986,14 @@
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49" t="s">
-        <v>339</v>
+      <c r="N49">
+        <v>907</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49" t="s">
-        <v>225</v>
+      <c r="P49">
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -4251,8 +3018,8 @@
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" t="s">
-        <v>53</v>
+      <c r="G50">
+        <v>218</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4269,8 +3036,8 @@
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" t="s">
-        <v>241</v>
+      <c r="M50">
+        <v>462</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -4304,8 +3071,8 @@
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" t="s">
-        <v>42</v>
+      <c r="G51">
+        <v>214</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4322,8 +3089,8 @@
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" t="s">
-        <v>256</v>
+      <c r="M51">
+        <v>390</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -4342,8 +3109,8 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>12</v>
+      <c r="B52">
+        <v>229</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -4354,8 +3121,8 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" t="s">
-        <v>134</v>
+      <c r="F52">
+        <v>208</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4410,8 +3177,8 @@
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53" t="s">
-        <v>202</v>
+      <c r="G53">
+        <v>155</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -4428,8 +3195,8 @@
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53" t="s">
-        <v>257</v>
+      <c r="M53">
+        <v>334</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -4484,14 +3251,14 @@
       <c r="M54">
         <v>0</v>
       </c>
-      <c r="N54" t="s">
-        <v>350</v>
+      <c r="N54">
+        <v>1115</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="P54" t="s">
-        <v>417</v>
+      <c r="P54">
+        <v>311</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -4513,8 +3280,8 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" t="s">
-        <v>56</v>
+      <c r="F55">
+        <v>223</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4569,8 +3336,8 @@
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56" t="s">
-        <v>78</v>
+      <c r="G56">
+        <v>190</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4587,8 +3354,8 @@
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56" t="s">
-        <v>258</v>
+      <c r="M56">
+        <v>377</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4607,8 +3374,8 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>13</v>
+      <c r="B57">
+        <v>206</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -4622,8 +3389,8 @@
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57" t="s">
-        <v>70</v>
+      <c r="G57">
+        <v>363</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -4640,8 +3407,8 @@
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57" t="s">
-        <v>259</v>
+      <c r="M57">
+        <v>598</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4660,8 +3427,8 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>14</v>
+      <c r="B58">
+        <v>196</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -4675,8 +3442,8 @@
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58" t="s">
-        <v>44</v>
+      <c r="G58">
+        <v>232</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4693,8 +3460,8 @@
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" t="s">
-        <v>40</v>
+      <c r="M58">
+        <v>433</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4716,8 +3483,8 @@
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" t="s">
-        <v>89</v>
+      <c r="C59">
+        <v>799</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -4749,14 +3516,14 @@
       <c r="M59">
         <v>0</v>
       </c>
-      <c r="N59" t="s">
-        <v>351</v>
+      <c r="N59">
+        <v>834</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
-      <c r="P59" t="s">
-        <v>230</v>
+      <c r="P59">
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -4778,8 +3545,8 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" t="s">
-        <v>69</v>
+      <c r="F60">
+        <v>216</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4831,8 +3598,8 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" t="s">
-        <v>21</v>
+      <c r="F61">
+        <v>240</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -4911,8 +3678,8 @@
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="O62" t="s">
-        <v>195</v>
+      <c r="O62">
+        <v>157</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -4940,8 +3707,8 @@
       <c r="F63">
         <v>0</v>
       </c>
-      <c r="G63" t="s">
-        <v>172</v>
+      <c r="G63">
+        <v>224</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -4958,8 +3725,8 @@
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="M63" t="s">
-        <v>260</v>
+      <c r="M63">
+        <v>394</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -5014,14 +3781,14 @@
       <c r="M64">
         <v>0</v>
       </c>
-      <c r="N64" t="s">
-        <v>93</v>
+      <c r="N64">
+        <v>837</v>
       </c>
       <c r="O64">
         <v>0</v>
       </c>
-      <c r="P64" t="s">
-        <v>418</v>
+      <c r="P64">
+        <v>10</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -5067,14 +3834,14 @@
       <c r="M65">
         <v>0</v>
       </c>
-      <c r="N65" t="s">
-        <v>352</v>
+      <c r="N65">
+        <v>1093</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
-      <c r="P65" t="s">
-        <v>419</v>
+      <c r="P65">
+        <v>154</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -5099,8 +3866,8 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66" t="s">
-        <v>203</v>
+      <c r="G66">
+        <v>367</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -5117,8 +3884,8 @@
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66" t="s">
-        <v>261</v>
+      <c r="M66">
+        <v>575</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -5137,8 +3904,8 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>15</v>
+      <c r="B67">
+        <v>222</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -5173,14 +3940,14 @@
       <c r="M67">
         <v>0</v>
       </c>
-      <c r="N67" t="s">
-        <v>353</v>
+      <c r="N67">
+        <v>928</v>
       </c>
       <c r="O67">
         <v>0</v>
       </c>
-      <c r="P67" t="s">
-        <v>5</v>
+      <c r="P67">
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -5205,8 +3972,8 @@
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68" t="s">
-        <v>171</v>
+      <c r="G68">
+        <v>245</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -5223,8 +3990,8 @@
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" t="s">
-        <v>262</v>
+      <c r="M68">
+        <v>481</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -5258,8 +4025,8 @@
       <c r="F69">
         <v>0</v>
       </c>
-      <c r="G69" t="s">
-        <v>50</v>
+      <c r="G69">
+        <v>175</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -5276,8 +4043,8 @@
       <c r="L69">
         <v>0</v>
       </c>
-      <c r="M69" t="s">
-        <v>263</v>
+      <c r="M69">
+        <v>455</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -5308,8 +4075,8 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70" t="s">
-        <v>131</v>
+      <c r="F70">
+        <v>227</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -5364,8 +4131,8 @@
       <c r="F71">
         <v>0</v>
       </c>
-      <c r="G71" t="s">
-        <v>4</v>
+      <c r="G71">
+        <v>219</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -5382,8 +4149,8 @@
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71" t="s">
-        <v>264</v>
+      <c r="M71">
+        <v>452</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -5438,14 +4205,14 @@
       <c r="M72">
         <v>0</v>
       </c>
-      <c r="N72" t="s">
-        <v>354</v>
+      <c r="N72">
+        <v>1052</v>
       </c>
       <c r="O72">
         <v>0</v>
       </c>
-      <c r="P72" t="s">
-        <v>420</v>
+      <c r="P72">
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -5455,8 +4222,8 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>16</v>
+      <c r="B73">
+        <v>262</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -5470,8 +4237,8 @@
       <c r="F73">
         <v>0</v>
       </c>
-      <c r="G73" t="s">
-        <v>54</v>
+      <c r="G73">
+        <v>204</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -5488,8 +4255,8 @@
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73" t="s">
-        <v>265</v>
+      <c r="M73">
+        <v>413</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -5508,8 +4275,8 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>17</v>
+      <c r="B74">
+        <v>237</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -5544,14 +4311,14 @@
       <c r="M74">
         <v>0</v>
       </c>
-      <c r="N74" t="s">
-        <v>355</v>
+      <c r="N74">
+        <v>1142</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
-      <c r="P74" t="s">
-        <v>419</v>
+      <c r="P74">
+        <v>154</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -5576,8 +4343,8 @@
       <c r="F75">
         <v>0</v>
       </c>
-      <c r="G75" t="s">
-        <v>77</v>
+      <c r="G75">
+        <v>205</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -5594,8 +4361,8 @@
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75" t="s">
-        <v>266</v>
+      <c r="M75">
+        <v>421</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -5626,8 +4393,8 @@
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="F76" t="s">
-        <v>56</v>
+      <c r="F76">
+        <v>223</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -5679,8 +4446,8 @@
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77" t="s">
-        <v>135</v>
+      <c r="F77">
+        <v>268</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -5735,8 +4502,8 @@
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="G78" t="s">
-        <v>133</v>
+      <c r="G78">
+        <v>210</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -5753,8 +4520,8 @@
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" t="s">
-        <v>267</v>
+      <c r="M78">
+        <v>479</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -5773,8 +4540,8 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>17</v>
+      <c r="B79">
+        <v>237</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -5809,14 +4576,14 @@
       <c r="M79">
         <v>0</v>
       </c>
-      <c r="N79" t="s">
-        <v>356</v>
+      <c r="N79">
+        <v>954</v>
       </c>
       <c r="O79">
         <v>0</v>
       </c>
-      <c r="P79" t="s">
-        <v>152</v>
+      <c r="P79">
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -5841,8 +4608,8 @@
       <c r="F80">
         <v>0</v>
       </c>
-      <c r="G80" t="s">
-        <v>204</v>
+      <c r="G80">
+        <v>65</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -5859,8 +4626,8 @@
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" t="s">
-        <v>180</v>
+      <c r="M80">
+        <v>250</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5894,8 +4661,8 @@
       <c r="F81">
         <v>0</v>
       </c>
-      <c r="G81" t="s">
-        <v>205</v>
+      <c r="G81">
+        <v>294</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -5912,8 +4679,8 @@
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81" t="s">
-        <v>268</v>
+      <c r="M81">
+        <v>558</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5944,8 +4711,8 @@
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82" t="s">
-        <v>136</v>
+      <c r="F82">
+        <v>165</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -6021,14 +4788,14 @@
       <c r="M83">
         <v>0</v>
       </c>
-      <c r="N83" t="s">
-        <v>208</v>
+      <c r="N83">
+        <v>903</v>
       </c>
       <c r="O83">
         <v>0</v>
       </c>
-      <c r="P83" t="s">
-        <v>421</v>
+      <c r="P83">
+        <v>7</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -6038,8 +4805,8 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>18</v>
+      <c r="B84">
+        <v>277</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -6053,8 +4820,8 @@
       <c r="F84">
         <v>0</v>
       </c>
-      <c r="G84" t="s">
-        <v>167</v>
+      <c r="G84">
+        <v>221</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -6071,8 +4838,8 @@
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84" t="s">
-        <v>269</v>
+      <c r="M84">
+        <v>456</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -6106,8 +4873,8 @@
       <c r="F85">
         <v>0</v>
       </c>
-      <c r="G85" t="s">
-        <v>71</v>
+      <c r="G85">
+        <v>220</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -6124,8 +4891,8 @@
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85" t="s">
-        <v>270</v>
+      <c r="M85">
+        <v>434</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -6144,8 +4911,8 @@
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>19</v>
+      <c r="B86">
+        <v>1034</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -6180,14 +4947,14 @@
       <c r="M86">
         <v>0</v>
       </c>
-      <c r="N86" t="s">
-        <v>357</v>
+      <c r="N86">
+        <v>932</v>
       </c>
       <c r="O86">
         <v>0</v>
       </c>
-      <c r="P86" t="s">
-        <v>133</v>
+      <c r="P86">
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -6209,8 +4976,8 @@
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87" t="s">
-        <v>137</v>
+      <c r="F87">
+        <v>31</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -6250,8 +5017,8 @@
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>12</v>
+      <c r="B88">
+        <v>229</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -6265,8 +5032,8 @@
       <c r="F88">
         <v>0</v>
       </c>
-      <c r="G88" t="s">
-        <v>150</v>
+      <c r="G88">
+        <v>199</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -6283,8 +5050,8 @@
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="M88" t="s">
-        <v>271</v>
+      <c r="M88">
+        <v>447</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -6315,8 +5082,8 @@
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89" t="s">
-        <v>77</v>
+      <c r="F89">
+        <v>205</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -6371,8 +5138,8 @@
       <c r="F90">
         <v>0</v>
       </c>
-      <c r="G90" t="s">
-        <v>28</v>
+      <c r="G90">
+        <v>187</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -6389,8 +5156,8 @@
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90" t="s">
-        <v>272</v>
+      <c r="M90">
+        <v>430</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -6412,8 +5179,8 @@
       <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91" t="s">
-        <v>90</v>
+      <c r="C91">
+        <v>722</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -6421,8 +5188,8 @@
       <c r="E91">
         <v>0</v>
       </c>
-      <c r="F91" t="s">
-        <v>138</v>
+      <c r="F91">
+        <v>192</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -6498,14 +5265,14 @@
       <c r="M92">
         <v>0</v>
       </c>
-      <c r="N92" t="s">
-        <v>358</v>
+      <c r="N92">
+        <v>1032</v>
       </c>
       <c r="O92">
         <v>0</v>
       </c>
-      <c r="P92" t="s">
-        <v>227</v>
+      <c r="P92">
+        <v>145</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -6518,8 +5285,8 @@
       <c r="B93">
         <v>0</v>
       </c>
-      <c r="C93" t="s">
-        <v>91</v>
+      <c r="C93">
+        <v>706</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -6530,8 +5297,8 @@
       <c r="F93">
         <v>0</v>
       </c>
-      <c r="G93" t="s">
-        <v>129</v>
+      <c r="G93">
+        <v>234</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -6548,8 +5315,8 @@
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93" t="s">
-        <v>273</v>
+      <c r="M93">
+        <v>458</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -6568,8 +5335,8 @@
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
-        <v>20</v>
+      <c r="B94">
+        <v>244</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -6607,8 +5374,8 @@
       <c r="N94">
         <v>0</v>
       </c>
-      <c r="O94" t="s">
-        <v>406</v>
+      <c r="O94">
+        <v>302</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -6636,8 +5403,8 @@
       <c r="F95">
         <v>0</v>
       </c>
-      <c r="G95" t="s">
-        <v>206</v>
+      <c r="G95">
+        <v>230</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -6654,8 +5421,8 @@
       <c r="L95">
         <v>0</v>
       </c>
-      <c r="M95" t="s">
-        <v>245</v>
+      <c r="M95">
+        <v>436</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -6674,8 +5441,8 @@
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>21</v>
+      <c r="B96">
+        <v>240</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -6713,8 +5480,8 @@
       <c r="N96">
         <v>0</v>
       </c>
-      <c r="O96" t="s">
-        <v>407</v>
+      <c r="O96">
+        <v>336</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -6739,8 +5506,8 @@
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97" t="s">
-        <v>139</v>
+      <c r="F97">
+        <v>185</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -6816,14 +5583,14 @@
       <c r="M98">
         <v>0</v>
       </c>
-      <c r="N98" t="s">
-        <v>359</v>
+      <c r="N98">
+        <v>649</v>
       </c>
       <c r="O98">
         <v>0</v>
       </c>
-      <c r="P98" t="s">
-        <v>12</v>
+      <c r="P98">
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -6845,8 +5612,8 @@
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="F99" t="s">
-        <v>133</v>
+      <c r="F99">
+        <v>210</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -6901,8 +5668,8 @@
       <c r="F100">
         <v>0</v>
       </c>
-      <c r="G100" t="s">
-        <v>207</v>
+      <c r="G100">
+        <v>140</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -6919,8 +5686,8 @@
       <c r="L100">
         <v>0</v>
       </c>
-      <c r="M100" t="s">
-        <v>274</v>
+      <c r="M100">
+        <v>356</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -6954,8 +5721,8 @@
       <c r="F101">
         <v>0</v>
       </c>
-      <c r="G101" t="s">
-        <v>37</v>
+      <c r="G101">
+        <v>226</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -6972,8 +5739,8 @@
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101" t="s">
-        <v>275</v>
+      <c r="M101">
+        <v>429</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -7007,8 +5774,8 @@
       <c r="F102">
         <v>0</v>
       </c>
-      <c r="G102" t="s">
-        <v>26</v>
+      <c r="G102">
+        <v>249</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -7025,8 +5792,8 @@
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102" t="s">
-        <v>276</v>
+      <c r="M102">
+        <v>478</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -7060,8 +5827,8 @@
       <c r="F103">
         <v>0</v>
       </c>
-      <c r="G103" t="s">
-        <v>208</v>
+      <c r="G103">
+        <v>903</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -7078,8 +5845,8 @@
       <c r="L103">
         <v>0</v>
       </c>
-      <c r="M103" t="s">
-        <v>277</v>
+      <c r="M103">
+        <v>1202</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -7113,8 +5880,8 @@
       <c r="F104">
         <v>0</v>
       </c>
-      <c r="G104" t="s">
-        <v>53</v>
+      <c r="G104">
+        <v>218</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -7131,8 +5898,8 @@
       <c r="L104">
         <v>0</v>
       </c>
-      <c r="M104" t="s">
-        <v>245</v>
+      <c r="M104">
+        <v>436</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -7151,8 +5918,8 @@
       <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
-        <v>22</v>
+      <c r="B105">
+        <v>373</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -7166,8 +5933,8 @@
       <c r="F105">
         <v>0</v>
       </c>
-      <c r="G105" t="s">
-        <v>200</v>
+      <c r="G105">
+        <v>173</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -7184,8 +5951,8 @@
       <c r="L105">
         <v>0</v>
       </c>
-      <c r="M105" t="s">
-        <v>278</v>
+      <c r="M105">
+        <v>408</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -7219,8 +5986,8 @@
       <c r="F106">
         <v>0</v>
       </c>
-      <c r="G106" t="s">
-        <v>136</v>
+      <c r="G106">
+        <v>165</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -7237,8 +6004,8 @@
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106" t="s">
-        <v>254</v>
+      <c r="M106">
+        <v>427</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -7272,8 +6039,8 @@
       <c r="F107">
         <v>0</v>
       </c>
-      <c r="G107" t="s">
-        <v>209</v>
+      <c r="G107">
+        <v>591</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -7290,8 +6057,8 @@
       <c r="L107">
         <v>0</v>
       </c>
-      <c r="M107" t="s">
-        <v>279</v>
+      <c r="M107">
+        <v>820</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -7322,8 +6089,8 @@
       <c r="E108">
         <v>0</v>
       </c>
-      <c r="F108" t="s">
-        <v>84</v>
+      <c r="F108">
+        <v>189</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -7378,8 +6145,8 @@
       <c r="F109">
         <v>0</v>
       </c>
-      <c r="G109" t="s">
-        <v>146</v>
+      <c r="G109">
+        <v>271</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -7396,8 +6163,8 @@
       <c r="L109">
         <v>0</v>
       </c>
-      <c r="M109" t="s">
-        <v>280</v>
+      <c r="M109">
+        <v>496</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -7419,8 +6186,8 @@
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110" t="s">
-        <v>92</v>
+      <c r="C110">
+        <v>724</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -7431,8 +6198,8 @@
       <c r="F110">
         <v>0</v>
       </c>
-      <c r="G110" t="s">
-        <v>26</v>
+      <c r="G110">
+        <v>249</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -7449,8 +6216,8 @@
       <c r="L110">
         <v>0</v>
       </c>
-      <c r="M110" t="s">
-        <v>281</v>
+      <c r="M110">
+        <v>460</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -7484,8 +6251,8 @@
       <c r="F111">
         <v>0</v>
       </c>
-      <c r="G111" t="s">
-        <v>179</v>
+      <c r="G111">
+        <v>233</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -7502,8 +6269,8 @@
       <c r="L111">
         <v>0</v>
       </c>
-      <c r="M111" t="s">
-        <v>282</v>
+      <c r="M111">
+        <v>502</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -7522,8 +6289,8 @@
       <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
-        <v>23</v>
+      <c r="B112">
+        <v>201</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -7558,14 +6325,14 @@
       <c r="M112">
         <v>0</v>
       </c>
-      <c r="N112" t="s">
-        <v>360</v>
+      <c r="N112">
+        <v>958</v>
       </c>
       <c r="O112">
         <v>0</v>
       </c>
-      <c r="P112" t="s">
-        <v>172</v>
+      <c r="P112">
+        <v>224</v>
       </c>
       <c r="Q112">
         <v>0</v>
@@ -7614,8 +6381,8 @@
       <c r="N113">
         <v>0</v>
       </c>
-      <c r="O113" t="s">
-        <v>28</v>
+      <c r="O113">
+        <v>187</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -7664,14 +6431,14 @@
       <c r="M114">
         <v>0</v>
       </c>
-      <c r="N114" t="s">
-        <v>361</v>
+      <c r="N114">
+        <v>964</v>
       </c>
       <c r="O114">
         <v>0</v>
       </c>
-      <c r="P114" t="s">
-        <v>56</v>
+      <c r="P114">
+        <v>223</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -7693,8 +6460,8 @@
       <c r="E115">
         <v>0</v>
       </c>
-      <c r="F115" t="s">
-        <v>64</v>
+      <c r="F115">
+        <v>266</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -7746,8 +6513,8 @@
       <c r="E116">
         <v>0</v>
       </c>
-      <c r="F116" t="s">
-        <v>140</v>
+      <c r="F116">
+        <v>319</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -7787,8 +6554,8 @@
       <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>24</v>
+      <c r="B117">
+        <v>183</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -7802,8 +6569,8 @@
       <c r="F117">
         <v>0</v>
       </c>
-      <c r="G117" t="s">
-        <v>62</v>
+      <c r="G117">
+        <v>211</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -7820,8 +6587,8 @@
       <c r="L117">
         <v>0</v>
       </c>
-      <c r="M117" t="s">
-        <v>246</v>
+      <c r="M117">
+        <v>428</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -7843,8 +6610,8 @@
       <c r="B118">
         <v>0</v>
       </c>
-      <c r="C118" t="s">
-        <v>93</v>
+      <c r="C118">
+        <v>837</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -7855,8 +6622,8 @@
       <c r="F118">
         <v>0</v>
       </c>
-      <c r="G118" t="s">
-        <v>210</v>
+      <c r="G118">
+        <v>167</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -7873,8 +6640,8 @@
       <c r="L118">
         <v>0</v>
       </c>
-      <c r="M118" t="s">
-        <v>283</v>
+      <c r="M118">
+        <v>381</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -7893,8 +6660,8 @@
       <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
-        <v>25</v>
+      <c r="B119">
+        <v>1183</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -7908,8 +6675,8 @@
       <c r="F119">
         <v>0</v>
       </c>
-      <c r="G119" t="s">
-        <v>4</v>
+      <c r="G119">
+        <v>219</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -7926,8 +6693,8 @@
       <c r="L119">
         <v>0</v>
       </c>
-      <c r="M119" t="s">
-        <v>284</v>
+      <c r="M119">
+        <v>443</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -7958,8 +6725,8 @@
       <c r="E120">
         <v>0</v>
       </c>
-      <c r="F120" t="s">
-        <v>39</v>
+      <c r="F120">
+        <v>276</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -7999,8 +6766,8 @@
       <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
-        <v>26</v>
+      <c r="B121">
+        <v>249</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -8038,8 +6805,8 @@
       <c r="N121">
         <v>0</v>
       </c>
-      <c r="O121" t="s">
-        <v>45</v>
+      <c r="O121">
+        <v>207</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -8064,8 +6831,8 @@
       <c r="E122">
         <v>0</v>
       </c>
-      <c r="F122" t="s">
-        <v>141</v>
+      <c r="F122">
+        <v>327</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -8120,8 +6887,8 @@
       <c r="F123">
         <v>0</v>
       </c>
-      <c r="G123" t="s">
-        <v>167</v>
+      <c r="G123">
+        <v>221</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -8138,8 +6905,8 @@
       <c r="L123">
         <v>0</v>
       </c>
-      <c r="M123" t="s">
-        <v>254</v>
+      <c r="M123">
+        <v>427</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -8158,8 +6925,8 @@
       <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
-        <v>27</v>
+      <c r="B124">
+        <v>179</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -8170,8 +6937,8 @@
       <c r="E124">
         <v>0</v>
       </c>
-      <c r="F124" t="s">
-        <v>142</v>
+      <c r="F124">
+        <v>14</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -8226,8 +6993,8 @@
       <c r="F125">
         <v>0</v>
       </c>
-      <c r="G125" t="s">
-        <v>152</v>
+      <c r="G125">
+        <v>217</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -8244,8 +7011,8 @@
       <c r="L125">
         <v>0</v>
       </c>
-      <c r="M125" t="s">
-        <v>273</v>
+      <c r="M125">
+        <v>458</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -8300,14 +7067,14 @@
       <c r="M126">
         <v>0</v>
       </c>
-      <c r="N126" t="s">
-        <v>362</v>
+      <c r="N126">
+        <v>939</v>
       </c>
       <c r="O126">
         <v>0</v>
       </c>
-      <c r="P126" t="s">
-        <v>82</v>
+      <c r="P126">
+        <v>213</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -8329,8 +7096,8 @@
       <c r="E127">
         <v>0</v>
       </c>
-      <c r="F127" t="s">
-        <v>143</v>
+      <c r="F127">
+        <v>383</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -8406,14 +7173,14 @@
       <c r="M128">
         <v>0</v>
       </c>
-      <c r="N128" t="s">
-        <v>363</v>
+      <c r="N128">
+        <v>1061</v>
       </c>
       <c r="O128">
         <v>0</v>
       </c>
-      <c r="P128" t="s">
-        <v>128</v>
+      <c r="P128">
+        <v>184</v>
       </c>
       <c r="Q128">
         <v>0</v>
@@ -8426,8 +7193,8 @@
       <c r="B129">
         <v>0</v>
       </c>
-      <c r="C129" t="s">
-        <v>94</v>
+      <c r="C129">
+        <v>732</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -8438,8 +7205,8 @@
       <c r="F129">
         <v>0</v>
       </c>
-      <c r="G129" t="s">
-        <v>15</v>
+      <c r="G129">
+        <v>222</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -8456,8 +7223,8 @@
       <c r="L129">
         <v>0</v>
       </c>
-      <c r="M129" t="s">
-        <v>285</v>
+      <c r="M129">
+        <v>416</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -8476,8 +7243,8 @@
       <c r="A130">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
-        <v>28</v>
+      <c r="B130">
+        <v>187</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -8491,8 +7258,8 @@
       <c r="F130">
         <v>0</v>
       </c>
-      <c r="G130" t="s">
-        <v>13</v>
+      <c r="G130">
+        <v>206</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -8509,8 +7276,8 @@
       <c r="L130">
         <v>0</v>
       </c>
-      <c r="M130" t="s">
-        <v>285</v>
+      <c r="M130">
+        <v>416</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -8544,8 +7311,8 @@
       <c r="F131">
         <v>0</v>
       </c>
-      <c r="G131" t="s">
-        <v>79</v>
+      <c r="G131">
+        <v>258</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -8562,8 +7329,8 @@
       <c r="L131">
         <v>0</v>
       </c>
-      <c r="M131" t="s">
-        <v>286</v>
+      <c r="M131">
+        <v>475</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -8621,8 +7388,8 @@
       <c r="N132">
         <v>0</v>
       </c>
-      <c r="O132" t="s">
-        <v>408</v>
+      <c r="O132">
+        <v>195</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -8635,8 +7402,8 @@
       <c r="A133">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
-        <v>29</v>
+      <c r="B133">
+        <v>248</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -8647,8 +7414,8 @@
       <c r="E133">
         <v>0</v>
       </c>
-      <c r="F133" t="s">
-        <v>130</v>
+      <c r="F133">
+        <v>303</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -8688,8 +7455,8 @@
       <c r="A134">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
-        <v>30</v>
+      <c r="B134">
+        <v>256</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -8724,14 +7491,14 @@
       <c r="M134">
         <v>0</v>
       </c>
-      <c r="N134" t="s">
-        <v>364</v>
+      <c r="N134">
+        <v>965</v>
       </c>
       <c r="O134">
         <v>0</v>
       </c>
-      <c r="P134" t="s">
-        <v>151</v>
+      <c r="P134">
+        <v>225</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -8753,8 +7520,8 @@
       <c r="E135">
         <v>0</v>
       </c>
-      <c r="F135" t="s">
-        <v>61</v>
+      <c r="F135">
+        <v>241</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -8794,8 +7561,8 @@
       <c r="A136">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
-        <v>31</v>
+      <c r="B136">
+        <v>331</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -8806,8 +7573,8 @@
       <c r="E136">
         <v>0</v>
       </c>
-      <c r="F136" t="s">
-        <v>144</v>
+      <c r="F136">
+        <v>6</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -8859,8 +7626,8 @@
       <c r="E137">
         <v>0</v>
       </c>
-      <c r="F137" t="s">
-        <v>145</v>
+      <c r="F137">
+        <v>281</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -8936,14 +7703,14 @@
       <c r="M138">
         <v>0</v>
       </c>
-      <c r="N138" t="s">
-        <v>365</v>
+      <c r="N138">
+        <v>1064</v>
       </c>
       <c r="O138">
         <v>0</v>
       </c>
-      <c r="P138" t="s">
-        <v>44</v>
+      <c r="P138">
+        <v>232</v>
       </c>
       <c r="Q138">
         <v>0</v>
@@ -8965,8 +7732,8 @@
       <c r="E139">
         <v>0</v>
       </c>
-      <c r="F139" t="s">
-        <v>146</v>
+      <c r="F139">
+        <v>271</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -9006,8 +7773,8 @@
       <c r="A140">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
-        <v>32</v>
+      <c r="B140">
+        <v>485</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -9021,8 +7788,8 @@
       <c r="F140">
         <v>0</v>
       </c>
-      <c r="G140" t="s">
-        <v>128</v>
+      <c r="G140">
+        <v>184</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -9039,8 +7806,8 @@
       <c r="L140">
         <v>0</v>
       </c>
-      <c r="M140" t="s">
-        <v>287</v>
+      <c r="M140">
+        <v>399</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -9074,8 +7841,8 @@
       <c r="F141">
         <v>0</v>
       </c>
-      <c r="G141" t="s">
-        <v>150</v>
+      <c r="G141">
+        <v>199</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -9092,8 +7859,8 @@
       <c r="L141">
         <v>0</v>
       </c>
-      <c r="M141" t="s">
-        <v>288</v>
+      <c r="M141">
+        <v>410</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -9148,14 +7915,14 @@
       <c r="M142">
         <v>0</v>
       </c>
-      <c r="N142" t="s">
-        <v>366</v>
+      <c r="N142">
+        <v>1279</v>
       </c>
       <c r="O142">
         <v>0</v>
       </c>
-      <c r="P142" t="s">
-        <v>64</v>
+      <c r="P142">
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -9177,8 +7944,8 @@
       <c r="E143">
         <v>0</v>
       </c>
-      <c r="F143" t="s">
-        <v>29</v>
+      <c r="F143">
+        <v>248</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -9218,8 +7985,8 @@
       <c r="A144">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
-        <v>33</v>
+      <c r="B144">
+        <v>748</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -9254,14 +8021,14 @@
       <c r="M144">
         <v>0</v>
       </c>
-      <c r="N144" t="s">
-        <v>367</v>
+      <c r="N144">
+        <v>1000</v>
       </c>
       <c r="O144">
         <v>0</v>
       </c>
-      <c r="P144" t="s">
-        <v>17</v>
+      <c r="P144">
+        <v>237</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -9286,8 +8053,8 @@
       <c r="F145">
         <v>0</v>
       </c>
-      <c r="G145" t="s">
-        <v>44</v>
+      <c r="G145">
+        <v>232</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -9304,8 +8071,8 @@
       <c r="L145">
         <v>0</v>
       </c>
-      <c r="M145" t="s">
-        <v>289</v>
+      <c r="M145">
+        <v>464</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -9327,8 +8094,8 @@
       <c r="B146">
         <v>0</v>
       </c>
-      <c r="C146" t="s">
-        <v>95</v>
+      <c r="C146">
+        <v>808</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -9339,8 +8106,8 @@
       <c r="F146">
         <v>0</v>
       </c>
-      <c r="G146" t="s">
-        <v>69</v>
+      <c r="G146">
+        <v>216</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -9357,8 +8124,8 @@
       <c r="L146">
         <v>0</v>
       </c>
-      <c r="M146" t="s">
-        <v>290</v>
+      <c r="M146">
+        <v>484</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -9389,8 +8156,8 @@
       <c r="E147">
         <v>0</v>
       </c>
-      <c r="F147" t="s">
-        <v>80</v>
+      <c r="F147">
+        <v>239</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -9445,8 +8212,8 @@
       <c r="F148">
         <v>0</v>
       </c>
-      <c r="G148" t="s">
-        <v>47</v>
+      <c r="G148">
+        <v>242</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -9463,8 +8230,8 @@
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="M148" t="s">
-        <v>291</v>
+      <c r="M148">
+        <v>404</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -9483,8 +8250,8 @@
       <c r="A149">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
-        <v>34</v>
+      <c r="B149">
+        <v>301</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -9522,8 +8289,8 @@
       <c r="N149">
         <v>0</v>
       </c>
-      <c r="O149" t="s">
-        <v>12</v>
+      <c r="O149">
+        <v>229</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -9536,8 +8303,8 @@
       <c r="A150">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
-        <v>35</v>
+      <c r="B150">
+        <v>313</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -9572,14 +8339,14 @@
       <c r="M150">
         <v>0</v>
       </c>
-      <c r="N150" t="s">
-        <v>368</v>
+      <c r="N150">
+        <v>1076</v>
       </c>
       <c r="O150">
         <v>0</v>
       </c>
-      <c r="P150" t="s">
-        <v>224</v>
+      <c r="P150">
+        <v>212</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -9592,8 +8359,8 @@
       <c r="B151">
         <v>0</v>
       </c>
-      <c r="C151" t="s">
-        <v>96</v>
+      <c r="C151">
+        <v>869</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -9604,8 +8371,8 @@
       <c r="F151">
         <v>0</v>
       </c>
-      <c r="G151" t="s">
-        <v>43</v>
+      <c r="G151">
+        <v>203</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -9622,8 +8389,8 @@
       <c r="L151">
         <v>0</v>
       </c>
-      <c r="M151" t="s">
-        <v>292</v>
+      <c r="M151">
+        <v>432</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -9654,8 +8421,8 @@
       <c r="E152">
         <v>0</v>
       </c>
-      <c r="F152" t="s">
-        <v>147</v>
+      <c r="F152">
+        <v>316</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -9707,8 +8474,8 @@
       <c r="E153">
         <v>0</v>
       </c>
-      <c r="F153" t="s">
-        <v>148</v>
+      <c r="F153">
+        <v>370</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -9787,8 +8554,8 @@
       <c r="N154">
         <v>0</v>
       </c>
-      <c r="O154" t="s">
-        <v>77</v>
+      <c r="O154">
+        <v>205</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -9816,8 +8583,8 @@
       <c r="F155">
         <v>0</v>
       </c>
-      <c r="G155" t="s">
-        <v>146</v>
+      <c r="G155">
+        <v>271</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -9834,8 +8601,8 @@
       <c r="L155">
         <v>0</v>
       </c>
-      <c r="M155" t="s">
-        <v>222</v>
+      <c r="M155">
+        <v>469</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -9869,8 +8636,8 @@
       <c r="F156">
         <v>0</v>
       </c>
-      <c r="G156" t="s">
-        <v>206</v>
+      <c r="G156">
+        <v>230</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -9887,8 +8654,8 @@
       <c r="L156">
         <v>0</v>
       </c>
-      <c r="M156" t="s">
-        <v>293</v>
+      <c r="M156">
+        <v>441</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -9907,8 +8674,8 @@
       <c r="A157">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
-        <v>36</v>
+      <c r="B157">
+        <v>168</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -9943,14 +8710,14 @@
       <c r="M157">
         <v>0</v>
       </c>
-      <c r="N157" t="s">
-        <v>369</v>
+      <c r="N157">
+        <v>966</v>
       </c>
       <c r="O157">
         <v>0</v>
       </c>
-      <c r="P157" t="s">
-        <v>230</v>
+      <c r="P157">
+        <v>181</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -9963,8 +8730,8 @@
       <c r="B158">
         <v>0</v>
       </c>
-      <c r="C158" t="s">
-        <v>97</v>
+      <c r="C158">
+        <v>1036</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -9975,8 +8742,8 @@
       <c r="F158">
         <v>0</v>
       </c>
-      <c r="G158" t="s">
-        <v>131</v>
+      <c r="G158">
+        <v>227</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -9993,8 +8760,8 @@
       <c r="L158">
         <v>0</v>
       </c>
-      <c r="M158" t="s">
-        <v>275</v>
+      <c r="M158">
+        <v>429</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -10049,14 +8816,14 @@
       <c r="M159">
         <v>0</v>
       </c>
-      <c r="N159" t="s">
-        <v>370</v>
+      <c r="N159">
+        <v>978</v>
       </c>
       <c r="O159">
         <v>0</v>
       </c>
-      <c r="P159" t="s">
-        <v>139</v>
+      <c r="P159">
+        <v>185</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -10069,8 +8836,8 @@
       <c r="B160">
         <v>0</v>
       </c>
-      <c r="C160" t="s">
-        <v>98</v>
+      <c r="C160">
+        <v>777</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -10078,8 +8845,8 @@
       <c r="E160">
         <v>0</v>
       </c>
-      <c r="F160" t="s">
-        <v>149</v>
+      <c r="F160">
+        <v>126</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -10119,8 +8886,8 @@
       <c r="A161">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
-        <v>37</v>
+      <c r="B161">
+        <v>226</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -10158,8 +8925,8 @@
       <c r="N161">
         <v>0</v>
       </c>
-      <c r="O161" t="s">
-        <v>9</v>
+      <c r="O161">
+        <v>238</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -10172,8 +8939,8 @@
       <c r="A162">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
-        <v>38</v>
+      <c r="B162">
+        <v>353</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -10208,14 +8975,14 @@
       <c r="M162">
         <v>0</v>
       </c>
-      <c r="N162" t="s">
-        <v>371</v>
+      <c r="N162">
+        <v>1071</v>
       </c>
       <c r="O162">
         <v>0</v>
       </c>
-      <c r="P162" t="s">
-        <v>213</v>
+      <c r="P162">
+        <v>260</v>
       </c>
       <c r="Q162">
         <v>0</v>
@@ -10264,8 +9031,8 @@
       <c r="N163">
         <v>0</v>
       </c>
-      <c r="O163" t="s">
-        <v>201</v>
+      <c r="O163">
+        <v>269</v>
       </c>
       <c r="P163">
         <v>0</v>
@@ -10281,8 +9048,8 @@
       <c r="B164">
         <v>0</v>
       </c>
-      <c r="C164" t="s">
-        <v>99</v>
+      <c r="C164">
+        <v>779</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -10290,8 +9057,8 @@
       <c r="E164">
         <v>0</v>
       </c>
-      <c r="F164" t="s">
-        <v>150</v>
+      <c r="F164">
+        <v>199</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -10331,8 +9098,8 @@
       <c r="A165">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
-        <v>39</v>
+      <c r="B165">
+        <v>276</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -10343,8 +9110,8 @@
       <c r="E165">
         <v>0</v>
       </c>
-      <c r="F165" t="s">
-        <v>151</v>
+      <c r="F165">
+        <v>225</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -10384,8 +9151,8 @@
       <c r="A166">
         <v>164</v>
       </c>
-      <c r="B166" t="s">
-        <v>21</v>
+      <c r="B166">
+        <v>240</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -10420,14 +9187,14 @@
       <c r="M166">
         <v>0</v>
       </c>
-      <c r="N166" t="s">
-        <v>372</v>
+      <c r="N166">
+        <v>914</v>
       </c>
       <c r="O166">
         <v>0</v>
       </c>
-      <c r="P166" t="s">
-        <v>69</v>
+      <c r="P166">
+        <v>216</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -10476,8 +9243,8 @@
       <c r="N167">
         <v>0</v>
       </c>
-      <c r="O167" t="s">
-        <v>179</v>
+      <c r="O167">
+        <v>233</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -10502,8 +9269,8 @@
       <c r="E168">
         <v>0</v>
       </c>
-      <c r="F168" t="s">
-        <v>152</v>
+      <c r="F168">
+        <v>217</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -10555,8 +9322,8 @@
       <c r="E169">
         <v>0</v>
       </c>
-      <c r="F169" t="s">
-        <v>18</v>
+      <c r="F169">
+        <v>277</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -10611,8 +9378,8 @@
       <c r="F170">
         <v>0</v>
       </c>
-      <c r="G170" t="s">
-        <v>45</v>
+      <c r="G170">
+        <v>207</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -10629,8 +9396,8 @@
       <c r="L170">
         <v>0</v>
       </c>
-      <c r="M170" t="s">
-        <v>264</v>
+      <c r="M170">
+        <v>452</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -10685,14 +9452,14 @@
       <c r="M171">
         <v>0</v>
       </c>
-      <c r="N171" t="s">
-        <v>360</v>
+      <c r="N171">
+        <v>958</v>
       </c>
       <c r="O171">
         <v>0</v>
       </c>
-      <c r="P171" t="s">
-        <v>62</v>
+      <c r="P171">
+        <v>211</v>
       </c>
       <c r="Q171">
         <v>0</v>
@@ -10705,8 +9472,8 @@
       <c r="B172">
         <v>0</v>
       </c>
-      <c r="C172" t="s">
-        <v>100</v>
+      <c r="C172">
+        <v>718</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -10738,14 +9505,14 @@
       <c r="M172">
         <v>0</v>
       </c>
-      <c r="N172" t="s">
-        <v>373</v>
+      <c r="N172">
+        <v>959</v>
       </c>
       <c r="O172">
         <v>0</v>
       </c>
-      <c r="P172" t="s">
-        <v>225</v>
+      <c r="P172">
+        <v>176</v>
       </c>
       <c r="Q172">
         <v>0</v>
@@ -10770,8 +9537,8 @@
       <c r="F173">
         <v>0</v>
       </c>
-      <c r="G173" t="s">
-        <v>179</v>
+      <c r="G173">
+        <v>233</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -10788,8 +9555,8 @@
       <c r="L173">
         <v>0</v>
       </c>
-      <c r="M173" t="s">
-        <v>294</v>
+      <c r="M173">
+        <v>488</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -10823,8 +9590,8 @@
       <c r="F174">
         <v>0</v>
       </c>
-      <c r="G174" t="s">
-        <v>163</v>
+      <c r="G174">
+        <v>164</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -10841,8 +9608,8 @@
       <c r="L174">
         <v>0</v>
       </c>
-      <c r="M174" t="s">
-        <v>246</v>
+      <c r="M174">
+        <v>428</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -10900,8 +9667,8 @@
       <c r="N175">
         <v>0</v>
       </c>
-      <c r="O175" t="s">
-        <v>60</v>
+      <c r="O175">
+        <v>215</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -10929,8 +9696,8 @@
       <c r="F176">
         <v>0</v>
       </c>
-      <c r="G176" t="s">
-        <v>211</v>
+      <c r="G176">
+        <v>228</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -10947,8 +9714,8 @@
       <c r="L176">
         <v>0</v>
       </c>
-      <c r="M176" t="s">
-        <v>51</v>
+      <c r="M176">
+        <v>470</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -10982,8 +9749,8 @@
       <c r="F177">
         <v>0</v>
       </c>
-      <c r="G177" t="s">
-        <v>14</v>
+      <c r="G177">
+        <v>196</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -11000,8 +9767,8 @@
       <c r="L177">
         <v>0</v>
       </c>
-      <c r="M177" t="s">
-        <v>295</v>
+      <c r="M177">
+        <v>418</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -11035,8 +9802,8 @@
       <c r="F178">
         <v>0</v>
       </c>
-      <c r="G178" t="s">
-        <v>212</v>
+      <c r="G178">
+        <v>328</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -11053,8 +9820,8 @@
       <c r="L178">
         <v>0</v>
       </c>
-      <c r="M178" t="s">
-        <v>296</v>
+      <c r="M178">
+        <v>561</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -11085,8 +9852,8 @@
       <c r="E179">
         <v>0</v>
       </c>
-      <c r="F179" t="s">
-        <v>153</v>
+      <c r="F179">
+        <v>379</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -11129,8 +9896,8 @@
       <c r="B180">
         <v>0</v>
       </c>
-      <c r="C180" t="s">
-        <v>101</v>
+      <c r="C180">
+        <v>720</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -11141,8 +9908,8 @@
       <c r="F180">
         <v>0</v>
       </c>
-      <c r="G180" t="s">
-        <v>56</v>
+      <c r="G180">
+        <v>223</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -11159,8 +9926,8 @@
       <c r="L180">
         <v>0</v>
       </c>
-      <c r="M180" t="s">
-        <v>297</v>
+      <c r="M180">
+        <v>853</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -11179,8 +9946,8 @@
       <c r="A181">
         <v>179</v>
       </c>
-      <c r="B181" t="s">
-        <v>40</v>
+      <c r="B181">
+        <v>433</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -11215,14 +9982,14 @@
       <c r="M181">
         <v>0</v>
       </c>
-      <c r="N181" t="s">
-        <v>374</v>
+      <c r="N181">
+        <v>1074</v>
       </c>
       <c r="O181">
         <v>0</v>
       </c>
-      <c r="P181" t="s">
-        <v>220</v>
+      <c r="P181">
+        <v>253</v>
       </c>
       <c r="Q181">
         <v>0</v>
@@ -11268,14 +10035,14 @@
       <c r="M182">
         <v>0</v>
       </c>
-      <c r="N182" t="s">
-        <v>375</v>
+      <c r="N182">
+        <v>1199</v>
       </c>
       <c r="O182">
         <v>0</v>
       </c>
-      <c r="P182" t="s">
-        <v>411</v>
+      <c r="P182">
+        <v>272</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -11285,8 +10052,8 @@
       <c r="A183">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
-        <v>30</v>
+      <c r="B183">
+        <v>256</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -11324,8 +10091,8 @@
       <c r="N183">
         <v>0</v>
       </c>
-      <c r="O183" t="s">
-        <v>409</v>
+      <c r="O183">
+        <v>278</v>
       </c>
       <c r="P183">
         <v>0</v>
@@ -11350,8 +10117,8 @@
       <c r="E184">
         <v>0</v>
       </c>
-      <c r="F184" t="s">
-        <v>146</v>
+      <c r="F184">
+        <v>271</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -11391,8 +10158,8 @@
       <c r="A185">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
-        <v>41</v>
+      <c r="B185">
+        <v>295</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -11406,8 +10173,8 @@
       <c r="F185">
         <v>0</v>
       </c>
-      <c r="G185" t="s">
-        <v>182</v>
+      <c r="G185">
+        <v>191</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -11424,8 +10191,8 @@
       <c r="L185">
         <v>0</v>
       </c>
-      <c r="M185" t="s">
-        <v>298</v>
+      <c r="M185">
+        <v>477</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -11444,8 +10211,8 @@
       <c r="A186">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
-        <v>42</v>
+      <c r="B186">
+        <v>214</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -11456,8 +10223,8 @@
       <c r="E186">
         <v>0</v>
       </c>
-      <c r="F186" t="s">
-        <v>154</v>
+      <c r="F186">
+        <v>293</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -11509,8 +10276,8 @@
       <c r="E187">
         <v>0</v>
       </c>
-      <c r="F187" t="s">
-        <v>155</v>
+      <c r="F187">
+        <v>177</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -11550,8 +10317,8 @@
       <c r="A188">
         <v>186</v>
       </c>
-      <c r="B188" t="s">
-        <v>43</v>
+      <c r="B188">
+        <v>203</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -11562,8 +10329,8 @@
       <c r="E188">
         <v>0</v>
       </c>
-      <c r="F188" t="s">
-        <v>7</v>
+      <c r="F188">
+        <v>255</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -11606,8 +10373,8 @@
       <c r="B189">
         <v>0</v>
       </c>
-      <c r="C189" t="s">
-        <v>102</v>
+      <c r="C189">
+        <v>766</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -11615,8 +10382,8 @@
       <c r="E189">
         <v>0</v>
       </c>
-      <c r="F189" t="s">
-        <v>156</v>
+      <c r="F189">
+        <v>317</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -11671,8 +10438,8 @@
       <c r="F190">
         <v>0</v>
       </c>
-      <c r="G190" t="s">
-        <v>18</v>
+      <c r="G190">
+        <v>277</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -11689,8 +10456,8 @@
       <c r="L190">
         <v>0</v>
       </c>
-      <c r="M190" t="s">
-        <v>263</v>
+      <c r="M190">
+        <v>455</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -11721,8 +10488,8 @@
       <c r="E191">
         <v>0</v>
       </c>
-      <c r="F191" t="s">
-        <v>157</v>
+      <c r="F191">
+        <v>247</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -11801,8 +10568,8 @@
       <c r="N192">
         <v>0</v>
       </c>
-      <c r="O192" t="s">
-        <v>188</v>
+      <c r="O192">
+        <v>472</v>
       </c>
       <c r="P192">
         <v>0</v>
@@ -11830,8 +10597,8 @@
       <c r="F193">
         <v>0</v>
       </c>
-      <c r="G193" t="s">
-        <v>213</v>
+      <c r="G193">
+        <v>260</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -11848,8 +10615,8 @@
       <c r="L193">
         <v>0</v>
       </c>
-      <c r="M193" t="s">
-        <v>299</v>
+      <c r="M193">
+        <v>445</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -11868,8 +10635,8 @@
       <c r="A194">
         <v>192</v>
       </c>
-      <c r="B194" t="s">
-        <v>43</v>
+      <c r="B194">
+        <v>203</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -11883,8 +10650,8 @@
       <c r="F194">
         <v>0</v>
       </c>
-      <c r="G194" t="s">
-        <v>71</v>
+      <c r="G194">
+        <v>220</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -11901,8 +10668,8 @@
       <c r="L194">
         <v>0</v>
       </c>
-      <c r="M194" t="s">
-        <v>66</v>
+      <c r="M194">
+        <v>397</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -11957,14 +10724,14 @@
       <c r="M195">
         <v>0</v>
       </c>
-      <c r="N195" t="s">
-        <v>376</v>
+      <c r="N195">
+        <v>967</v>
       </c>
       <c r="O195">
         <v>0</v>
       </c>
-      <c r="P195" t="s">
-        <v>55</v>
+      <c r="P195">
+        <v>251</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -11974,8 +10741,8 @@
       <c r="A196">
         <v>194</v>
       </c>
-      <c r="B196" t="s">
-        <v>44</v>
+      <c r="B196">
+        <v>232</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -11989,8 +10756,8 @@
       <c r="F196">
         <v>0</v>
       </c>
-      <c r="G196" t="s">
-        <v>214</v>
+      <c r="G196">
+        <v>243</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -12007,8 +10774,8 @@
       <c r="L196">
         <v>0</v>
       </c>
-      <c r="M196" t="s">
-        <v>281</v>
+      <c r="M196">
+        <v>460</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -12039,8 +10806,8 @@
       <c r="E197">
         <v>0</v>
       </c>
-      <c r="F197" t="s">
-        <v>158</v>
+      <c r="F197">
+        <v>235</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -12116,14 +10883,14 @@
       <c r="M198">
         <v>0</v>
       </c>
-      <c r="N198" t="s">
-        <v>377</v>
+      <c r="N198">
+        <v>871</v>
       </c>
       <c r="O198">
         <v>0</v>
       </c>
-      <c r="P198" t="s">
-        <v>155</v>
+      <c r="P198">
+        <v>177</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -12145,8 +10912,8 @@
       <c r="E199">
         <v>0</v>
       </c>
-      <c r="F199" t="s">
-        <v>159</v>
+      <c r="F199">
+        <v>387</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -12186,8 +10953,8 @@
       <c r="A200">
         <v>198</v>
       </c>
-      <c r="B200" t="s">
-        <v>45</v>
+      <c r="B200">
+        <v>207</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -12201,8 +10968,8 @@
       <c r="F200">
         <v>0</v>
       </c>
-      <c r="G200" t="s">
-        <v>215</v>
+      <c r="G200">
+        <v>307</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -12219,8 +10986,8 @@
       <c r="L200">
         <v>0</v>
       </c>
-      <c r="M200" t="s">
-        <v>300</v>
+      <c r="M200">
+        <v>515</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -12254,8 +11021,8 @@
       <c r="F201">
         <v>0</v>
       </c>
-      <c r="G201" t="s">
-        <v>216</v>
+      <c r="G201">
+        <v>125</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -12272,8 +11039,8 @@
       <c r="L201">
         <v>0</v>
       </c>
-      <c r="M201" t="s">
-        <v>31</v>
+      <c r="M201">
+        <v>331</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -12292,8 +11059,8 @@
       <c r="A202">
         <v>200</v>
       </c>
-      <c r="B202" t="s">
-        <v>46</v>
+      <c r="B202">
+        <v>745</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -12307,8 +11074,8 @@
       <c r="F202">
         <v>0</v>
       </c>
-      <c r="G202" t="s">
-        <v>150</v>
+      <c r="G202">
+        <v>199</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -12325,8 +11092,8 @@
       <c r="L202">
         <v>0</v>
       </c>
-      <c r="M202" t="s">
-        <v>291</v>
+      <c r="M202">
+        <v>404</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -12357,8 +11124,8 @@
       <c r="E203">
         <v>0</v>
       </c>
-      <c r="F203" t="s">
-        <v>83</v>
+      <c r="F203">
+        <v>257</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -12434,14 +11201,14 @@
       <c r="M204">
         <v>0</v>
       </c>
-      <c r="N204" t="s">
-        <v>339</v>
+      <c r="N204">
+        <v>907</v>
       </c>
       <c r="O204">
         <v>0</v>
       </c>
-      <c r="P204" t="s">
-        <v>37</v>
+      <c r="P204">
+        <v>226</v>
       </c>
       <c r="Q204">
         <v>0</v>
@@ -12463,8 +11230,8 @@
       <c r="E205">
         <v>0</v>
       </c>
-      <c r="F205" t="s">
-        <v>160</v>
+      <c r="F205">
+        <v>354</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -12519,8 +11286,8 @@
       <c r="F206">
         <v>0</v>
       </c>
-      <c r="G206" t="s">
-        <v>23</v>
+      <c r="G206">
+        <v>201</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -12537,8 +11304,8 @@
       <c r="L206">
         <v>0</v>
       </c>
-      <c r="M206" t="s">
-        <v>301</v>
+      <c r="M206">
+        <v>401</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -12593,14 +11360,14 @@
       <c r="M207">
         <v>0</v>
       </c>
-      <c r="N207" t="s">
-        <v>378</v>
+      <c r="N207">
+        <v>938</v>
       </c>
       <c r="O207">
         <v>0</v>
       </c>
-      <c r="P207" t="s">
-        <v>158</v>
+      <c r="P207">
+        <v>235</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -12625,8 +11392,8 @@
       <c r="F208">
         <v>0</v>
       </c>
-      <c r="G208" t="s">
-        <v>182</v>
+      <c r="G208">
+        <v>191</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -12643,8 +11410,8 @@
       <c r="L208">
         <v>0</v>
       </c>
-      <c r="M208" t="s">
-        <v>74</v>
+      <c r="M208">
+        <v>392</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -12678,8 +11445,8 @@
       <c r="F209">
         <v>0</v>
       </c>
-      <c r="G209" t="s">
-        <v>37</v>
+      <c r="G209">
+        <v>226</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -12696,8 +11463,8 @@
       <c r="L209">
         <v>0</v>
       </c>
-      <c r="M209" t="s">
-        <v>246</v>
+      <c r="M209">
+        <v>428</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -12716,8 +11483,8 @@
       <c r="A210">
         <v>208</v>
       </c>
-      <c r="B210" t="s">
-        <v>47</v>
+      <c r="B210">
+        <v>242</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -12731,8 +11498,8 @@
       <c r="F210">
         <v>0</v>
       </c>
-      <c r="G210" t="s">
-        <v>217</v>
+      <c r="G210">
+        <v>2</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -12749,8 +11516,8 @@
       <c r="L210">
         <v>0</v>
       </c>
-      <c r="M210" t="s">
-        <v>6</v>
+      <c r="M210">
+        <v>288</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -12784,8 +11551,8 @@
       <c r="F211">
         <v>0</v>
       </c>
-      <c r="G211" t="s">
-        <v>134</v>
+      <c r="G211">
+        <v>208</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -12802,8 +11569,8 @@
       <c r="L211">
         <v>0</v>
       </c>
-      <c r="M211" t="s">
-        <v>302</v>
+      <c r="M211">
+        <v>426</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -12834,8 +11601,8 @@
       <c r="E212">
         <v>0</v>
       </c>
-      <c r="F212" t="s">
-        <v>161</v>
+      <c r="F212">
+        <v>246</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -12887,8 +11654,8 @@
       <c r="E213">
         <v>0</v>
       </c>
-      <c r="F213" t="s">
-        <v>129</v>
+      <c r="F213">
+        <v>234</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -12928,8 +11695,8 @@
       <c r="A214">
         <v>212</v>
       </c>
-      <c r="B214" t="s">
-        <v>48</v>
+      <c r="B214">
+        <v>194</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -12964,14 +11731,14 @@
       <c r="M214">
         <v>0</v>
       </c>
-      <c r="N214" t="s">
-        <v>379</v>
+      <c r="N214">
+        <v>856</v>
       </c>
       <c r="O214">
         <v>0</v>
       </c>
-      <c r="P214" t="s">
-        <v>54</v>
+      <c r="P214">
+        <v>204</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -12996,8 +11763,8 @@
       <c r="F215">
         <v>0</v>
       </c>
-      <c r="G215" t="s">
-        <v>35</v>
+      <c r="G215">
+        <v>313</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -13014,8 +11781,8 @@
       <c r="L215">
         <v>0</v>
       </c>
-      <c r="M215" t="s">
-        <v>303</v>
+      <c r="M215">
+        <v>546</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -13034,8 +11801,8 @@
       <c r="A216">
         <v>214</v>
       </c>
-      <c r="B216" t="s">
-        <v>49</v>
+      <c r="B216">
+        <v>437</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -13070,14 +11837,14 @@
       <c r="M216">
         <v>0</v>
       </c>
-      <c r="N216" t="s">
-        <v>380</v>
+      <c r="N216">
+        <v>1005</v>
       </c>
       <c r="O216">
         <v>0</v>
       </c>
-      <c r="P216" t="s">
-        <v>211</v>
+      <c r="P216">
+        <v>228</v>
       </c>
       <c r="Q216">
         <v>0</v>
@@ -13087,8 +11854,8 @@
       <c r="A217">
         <v>215</v>
       </c>
-      <c r="B217" t="s">
-        <v>50</v>
+      <c r="B217">
+        <v>175</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -13099,8 +11866,8 @@
       <c r="E217">
         <v>0</v>
       </c>
-      <c r="F217" t="s">
-        <v>158</v>
+      <c r="F217">
+        <v>235</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -13140,8 +11907,8 @@
       <c r="A218">
         <v>216</v>
       </c>
-      <c r="B218" t="s">
-        <v>51</v>
+      <c r="B218">
+        <v>470</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -13229,14 +11996,14 @@
       <c r="M219">
         <v>0</v>
       </c>
-      <c r="N219" t="s">
-        <v>381</v>
+      <c r="N219">
+        <v>901</v>
       </c>
       <c r="O219">
         <v>0</v>
       </c>
-      <c r="P219" t="s">
-        <v>232</v>
+      <c r="P219">
+        <v>200</v>
       </c>
       <c r="Q219">
         <v>0</v>
@@ -13258,8 +12025,8 @@
       <c r="E220">
         <v>0</v>
       </c>
-      <c r="F220" t="s">
-        <v>162</v>
+      <c r="F220">
+        <v>99</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -13299,8 +12066,8 @@
       <c r="A221">
         <v>219</v>
       </c>
-      <c r="B221" t="s">
-        <v>52</v>
+      <c r="B221">
+        <v>382</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -13311,8 +12078,8 @@
       <c r="E221">
         <v>0</v>
       </c>
-      <c r="F221" t="s">
-        <v>16</v>
+      <c r="F221">
+        <v>262</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -13355,8 +12122,8 @@
       <c r="B222">
         <v>0</v>
       </c>
-      <c r="C222" t="s">
-        <v>103</v>
+      <c r="C222">
+        <v>744</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -13364,8 +12131,8 @@
       <c r="E222">
         <v>0</v>
       </c>
-      <c r="F222" t="s">
-        <v>18</v>
+      <c r="F222">
+        <v>277</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -13420,8 +12187,8 @@
       <c r="F223">
         <v>0</v>
       </c>
-      <c r="G223" t="s">
-        <v>179</v>
+      <c r="G223">
+        <v>233</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -13438,8 +12205,8 @@
       <c r="L223">
         <v>0</v>
       </c>
-      <c r="M223" t="s">
-        <v>292</v>
+      <c r="M223">
+        <v>432</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -13458,8 +12225,8 @@
       <c r="A224">
         <v>222</v>
       </c>
-      <c r="B224" t="s">
-        <v>53</v>
+      <c r="B224">
+        <v>218</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -13473,8 +12240,8 @@
       <c r="F224">
         <v>0</v>
       </c>
-      <c r="G224" t="s">
-        <v>130</v>
+      <c r="G224">
+        <v>303</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -13491,8 +12258,8 @@
       <c r="L224">
         <v>0</v>
       </c>
-      <c r="M224" t="s">
-        <v>304</v>
+      <c r="M224">
+        <v>486</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -13511,8 +12278,8 @@
       <c r="A225">
         <v>223</v>
       </c>
-      <c r="B225" t="s">
-        <v>54</v>
+      <c r="B225">
+        <v>204</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -13523,8 +12290,8 @@
       <c r="E225">
         <v>0</v>
       </c>
-      <c r="F225" t="s">
-        <v>163</v>
+      <c r="F225">
+        <v>164</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -13564,8 +12331,8 @@
       <c r="A226">
         <v>224</v>
       </c>
-      <c r="B226" t="s">
-        <v>55</v>
+      <c r="B226">
+        <v>251</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -13603,8 +12370,8 @@
       <c r="N226">
         <v>0</v>
       </c>
-      <c r="O226" t="s">
-        <v>2</v>
+      <c r="O226">
+        <v>254</v>
       </c>
       <c r="P226">
         <v>0</v>
@@ -13620,8 +12387,8 @@
       <c r="B227">
         <v>0</v>
       </c>
-      <c r="C227" t="s">
-        <v>104</v>
+      <c r="C227">
+        <v>597</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -13632,8 +12399,8 @@
       <c r="F227">
         <v>0</v>
       </c>
-      <c r="G227" t="s">
-        <v>77</v>
+      <c r="G227">
+        <v>205</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -13650,8 +12417,8 @@
       <c r="L227">
         <v>0</v>
       </c>
-      <c r="M227" t="s">
-        <v>305</v>
+      <c r="M227">
+        <v>388</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -13670,8 +12437,8 @@
       <c r="A228">
         <v>226</v>
       </c>
-      <c r="B228" t="s">
-        <v>56</v>
+      <c r="B228">
+        <v>223</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -13682,8 +12449,8 @@
       <c r="E228">
         <v>0</v>
       </c>
-      <c r="F228" t="s">
-        <v>128</v>
+      <c r="F228">
+        <v>184</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -13723,8 +12490,8 @@
       <c r="A229">
         <v>227</v>
       </c>
-      <c r="B229" t="s">
-        <v>57</v>
+      <c r="B229">
+        <v>282</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -13735,8 +12502,8 @@
       <c r="E229">
         <v>0</v>
       </c>
-      <c r="F229" t="s">
-        <v>20</v>
+      <c r="F229">
+        <v>244</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -13776,8 +12543,8 @@
       <c r="A230">
         <v>228</v>
       </c>
-      <c r="B230" t="s">
-        <v>12</v>
+      <c r="B230">
+        <v>229</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -13788,8 +12555,8 @@
       <c r="E230">
         <v>0</v>
       </c>
-      <c r="F230" t="s">
-        <v>41</v>
+      <c r="F230">
+        <v>295</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -13829,8 +12596,8 @@
       <c r="A231">
         <v>229</v>
       </c>
-      <c r="B231" t="s">
-        <v>58</v>
+      <c r="B231">
+        <v>312</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -13868,8 +12635,8 @@
       <c r="N231">
         <v>0</v>
       </c>
-      <c r="O231" t="s">
-        <v>183</v>
+      <c r="O231">
+        <v>341</v>
       </c>
       <c r="P231">
         <v>0</v>
@@ -13894,8 +12661,8 @@
       <c r="E232">
         <v>0</v>
       </c>
-      <c r="F232" t="s">
-        <v>43</v>
+      <c r="F232">
+        <v>203</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -13947,8 +12714,8 @@
       <c r="E233">
         <v>0</v>
       </c>
-      <c r="F233" t="s">
-        <v>164</v>
+      <c r="F233">
+        <v>147</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -14000,8 +12767,8 @@
       <c r="E234">
         <v>0</v>
       </c>
-      <c r="F234" t="s">
-        <v>165</v>
+      <c r="F234">
+        <v>122</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -14053,8 +12820,8 @@
       <c r="E235">
         <v>0</v>
       </c>
-      <c r="F235" t="s">
-        <v>150</v>
+      <c r="F235">
+        <v>199</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -14094,8 +12861,8 @@
       <c r="A236">
         <v>234</v>
       </c>
-      <c r="B236" t="s">
-        <v>15</v>
+      <c r="B236">
+        <v>222</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -14130,14 +12897,14 @@
       <c r="M236">
         <v>0</v>
       </c>
-      <c r="N236" t="s">
-        <v>229</v>
+      <c r="N236">
+        <v>828</v>
       </c>
       <c r="O236">
         <v>0</v>
       </c>
-      <c r="P236" t="s">
-        <v>76</v>
+      <c r="P236">
+        <v>169</v>
       </c>
       <c r="Q236">
         <v>0</v>
@@ -14147,8 +12914,8 @@
       <c r="A237">
         <v>235</v>
       </c>
-      <c r="B237" t="s">
-        <v>21</v>
+      <c r="B237">
+        <v>240</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -14162,8 +12929,8 @@
       <c r="F237">
         <v>0</v>
       </c>
-      <c r="G237" t="s">
-        <v>218</v>
+      <c r="G237">
+        <v>231</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -14180,8 +12947,8 @@
       <c r="L237">
         <v>0</v>
       </c>
-      <c r="M237" t="s">
-        <v>275</v>
+      <c r="M237">
+        <v>429</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -14200,8 +12967,8 @@
       <c r="A238">
         <v>236</v>
       </c>
-      <c r="B238" t="s">
-        <v>59</v>
+      <c r="B238">
+        <v>440</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -14215,8 +12982,8 @@
       <c r="F238">
         <v>0</v>
       </c>
-      <c r="G238" t="s">
-        <v>219</v>
+      <c r="G238">
+        <v>236</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -14233,8 +13000,8 @@
       <c r="L238">
         <v>0</v>
       </c>
-      <c r="M238" t="s">
-        <v>292</v>
+      <c r="M238">
+        <v>432</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -14268,8 +13035,8 @@
       <c r="F239">
         <v>0</v>
       </c>
-      <c r="G239" t="s">
-        <v>6</v>
+      <c r="G239">
+        <v>288</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -14286,8 +13053,8 @@
       <c r="L239">
         <v>0</v>
       </c>
-      <c r="M239" t="s">
-        <v>306</v>
+      <c r="M239">
+        <v>524</v>
       </c>
       <c r="N239">
         <v>0</v>
@@ -14318,8 +13085,8 @@
       <c r="E240">
         <v>0</v>
       </c>
-      <c r="F240" t="s">
-        <v>127</v>
+      <c r="F240">
+        <v>280</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -14359,8 +13126,8 @@
       <c r="A241">
         <v>239</v>
       </c>
-      <c r="B241" t="s">
-        <v>60</v>
+      <c r="B241">
+        <v>215</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -14371,8 +13138,8 @@
       <c r="E241">
         <v>0</v>
       </c>
-      <c r="F241" t="s">
-        <v>150</v>
+      <c r="F241">
+        <v>199</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -14424,8 +13191,8 @@
       <c r="E242">
         <v>0</v>
       </c>
-      <c r="F242" t="s">
-        <v>166</v>
+      <c r="F242">
+        <v>491</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -14501,14 +13268,14 @@
       <c r="M243">
         <v>0</v>
       </c>
-      <c r="N243" t="s">
-        <v>338</v>
+      <c r="N243">
+        <v>983</v>
       </c>
       <c r="O243">
         <v>0</v>
       </c>
-      <c r="P243" t="s">
-        <v>211</v>
+      <c r="P243">
+        <v>228</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -14518,8 +13285,8 @@
       <c r="A244">
         <v>242</v>
       </c>
-      <c r="B244" t="s">
-        <v>56</v>
+      <c r="B244">
+        <v>223</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -14554,14 +13321,14 @@
       <c r="M244">
         <v>0</v>
       </c>
-      <c r="N244" t="s">
-        <v>382</v>
+      <c r="N244">
+        <v>1114</v>
       </c>
       <c r="O244">
         <v>0</v>
       </c>
-      <c r="P244" t="s">
-        <v>200</v>
+      <c r="P244">
+        <v>173</v>
       </c>
       <c r="Q244">
         <v>0</v>
@@ -14574,8 +13341,8 @@
       <c r="B245">
         <v>0</v>
       </c>
-      <c r="C245" t="s">
-        <v>105</v>
+      <c r="C245">
+        <v>717</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -14583,8 +13350,8 @@
       <c r="E245">
         <v>0</v>
       </c>
-      <c r="F245" t="s">
-        <v>54</v>
+      <c r="F245">
+        <v>204</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -14639,8 +13406,8 @@
       <c r="F246">
         <v>0</v>
       </c>
-      <c r="G246" t="s">
-        <v>220</v>
+      <c r="G246">
+        <v>253</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -14657,8 +13424,8 @@
       <c r="L246">
         <v>0</v>
       </c>
-      <c r="M246" t="s">
-        <v>307</v>
+      <c r="M246">
+        <v>446</v>
       </c>
       <c r="N246">
         <v>0</v>
@@ -14692,8 +13459,8 @@
       <c r="F247">
         <v>0</v>
       </c>
-      <c r="G247" t="s">
-        <v>45</v>
+      <c r="G247">
+        <v>207</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -14710,8 +13477,8 @@
       <c r="L247">
         <v>0</v>
       </c>
-      <c r="M247" t="s">
-        <v>308</v>
+      <c r="M247">
+        <v>407</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -14733,8 +13500,8 @@
       <c r="B248">
         <v>0</v>
       </c>
-      <c r="C248" t="s">
-        <v>106</v>
+      <c r="C248">
+        <v>659</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -14742,8 +13509,8 @@
       <c r="E248">
         <v>0</v>
       </c>
-      <c r="F248" t="s">
-        <v>9</v>
+      <c r="F248">
+        <v>238</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -14822,8 +13589,8 @@
       <c r="N249">
         <v>0</v>
       </c>
-      <c r="O249" t="s">
-        <v>69</v>
+      <c r="O249">
+        <v>216</v>
       </c>
       <c r="P249">
         <v>0</v>
@@ -14839,8 +13606,8 @@
       <c r="B250">
         <v>0</v>
       </c>
-      <c r="C250" t="s">
-        <v>107</v>
+      <c r="C250">
+        <v>713</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -14851,8 +13618,8 @@
       <c r="F250">
         <v>0</v>
       </c>
-      <c r="G250" t="s">
-        <v>129</v>
+      <c r="G250">
+        <v>234</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -14869,8 +13636,8 @@
       <c r="L250">
         <v>0</v>
       </c>
-      <c r="M250" t="s">
-        <v>266</v>
+      <c r="M250">
+        <v>421</v>
       </c>
       <c r="N250">
         <v>0</v>
@@ -14904,8 +13671,8 @@
       <c r="F251">
         <v>0</v>
       </c>
-      <c r="G251" t="s">
-        <v>15</v>
+      <c r="G251">
+        <v>222</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -14922,8 +13689,8 @@
       <c r="L251">
         <v>0</v>
       </c>
-      <c r="M251" t="s">
-        <v>293</v>
+      <c r="M251">
+        <v>441</v>
       </c>
       <c r="N251">
         <v>0</v>
@@ -14981,8 +13748,8 @@
       <c r="N252">
         <v>0</v>
       </c>
-      <c r="O252" t="s">
-        <v>79</v>
+      <c r="O252">
+        <v>258</v>
       </c>
       <c r="P252">
         <v>0</v>
@@ -14995,8 +13762,8 @@
       <c r="A253">
         <v>251</v>
       </c>
-      <c r="B253" t="s">
-        <v>61</v>
+      <c r="B253">
+        <v>241</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -15031,14 +13798,14 @@
       <c r="M253">
         <v>0</v>
       </c>
-      <c r="N253" t="s">
-        <v>383</v>
+      <c r="N253">
+        <v>924</v>
       </c>
       <c r="O253">
         <v>0</v>
       </c>
-      <c r="P253" t="s">
-        <v>171</v>
+      <c r="P253">
+        <v>245</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -15087,8 +13854,8 @@
       <c r="N254">
         <v>0</v>
       </c>
-      <c r="O254" t="s">
-        <v>410</v>
+      <c r="O254">
+        <v>109</v>
       </c>
       <c r="P254">
         <v>0</v>
@@ -15116,8 +13883,8 @@
       <c r="F255">
         <v>0</v>
       </c>
-      <c r="G255" t="s">
-        <v>82</v>
+      <c r="G255">
+        <v>213</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -15134,8 +13901,8 @@
       <c r="L255">
         <v>0</v>
       </c>
-      <c r="M255" t="s">
-        <v>289</v>
+      <c r="M255">
+        <v>464</v>
       </c>
       <c r="N255">
         <v>0</v>
@@ -15154,8 +13921,8 @@
       <c r="A256">
         <v>254</v>
       </c>
-      <c r="B256" t="s">
-        <v>29</v>
+      <c r="B256">
+        <v>248</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -15190,14 +13957,14 @@
       <c r="M256">
         <v>0</v>
       </c>
-      <c r="N256" t="s">
-        <v>384</v>
+      <c r="N256">
+        <v>1162</v>
       </c>
       <c r="O256">
         <v>0</v>
       </c>
-      <c r="P256" t="s">
-        <v>54</v>
+      <c r="P256">
+        <v>204</v>
       </c>
       <c r="Q256">
         <v>0</v>
@@ -15207,8 +13974,8 @@
       <c r="A257">
         <v>255</v>
       </c>
-      <c r="B257" t="s">
-        <v>62</v>
+      <c r="B257">
+        <v>211</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -15219,8 +13986,8 @@
       <c r="E257">
         <v>0</v>
       </c>
-      <c r="F257" t="s">
-        <v>167</v>
+      <c r="F257">
+        <v>221</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -15275,8 +14042,8 @@
       <c r="F258">
         <v>0</v>
       </c>
-      <c r="G258" t="s">
-        <v>127</v>
+      <c r="G258">
+        <v>280</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -15293,8 +14060,8 @@
       <c r="L258">
         <v>0</v>
       </c>
-      <c r="M258" t="s">
-        <v>309</v>
+      <c r="M258">
+        <v>512</v>
       </c>
       <c r="N258">
         <v>0</v>
@@ -15349,14 +14116,14 @@
       <c r="M259">
         <v>0</v>
       </c>
-      <c r="N259" t="s">
-        <v>385</v>
+      <c r="N259">
+        <v>997</v>
       </c>
       <c r="O259">
         <v>0</v>
       </c>
-      <c r="P259" t="s">
-        <v>132</v>
+      <c r="P259">
+        <v>151</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -15366,8 +14133,8 @@
       <c r="A260">
         <v>258</v>
       </c>
-      <c r="B260" t="s">
-        <v>63</v>
+      <c r="B260">
+        <v>197</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -15378,8 +14145,8 @@
       <c r="E260">
         <v>0</v>
       </c>
-      <c r="F260" t="s">
-        <v>161</v>
+      <c r="F260">
+        <v>246</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -15431,8 +14198,8 @@
       <c r="E261">
         <v>0</v>
       </c>
-      <c r="F261" t="s">
-        <v>151</v>
+      <c r="F261">
+        <v>225</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -15508,14 +14275,14 @@
       <c r="M262">
         <v>0</v>
       </c>
-      <c r="N262" t="s">
-        <v>208</v>
+      <c r="N262">
+        <v>903</v>
       </c>
       <c r="O262">
         <v>0</v>
       </c>
-      <c r="P262" t="s">
-        <v>157</v>
+      <c r="P262">
+        <v>247</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -15528,8 +14295,8 @@
       <c r="B263">
         <v>0</v>
       </c>
-      <c r="C263" t="s">
-        <v>108</v>
+      <c r="C263">
+        <v>752</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -15537,8 +14304,8 @@
       <c r="E263">
         <v>0</v>
       </c>
-      <c r="F263" t="s">
-        <v>168</v>
+      <c r="F263">
+        <v>284</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -15590,8 +14357,8 @@
       <c r="E264">
         <v>0</v>
       </c>
-      <c r="F264" t="s">
-        <v>18</v>
+      <c r="F264">
+        <v>277</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -15646,8 +14413,8 @@
       <c r="F265">
         <v>0</v>
       </c>
-      <c r="G265" t="s">
-        <v>82</v>
+      <c r="G265">
+        <v>213</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -15664,8 +14431,8 @@
       <c r="L265">
         <v>0</v>
       </c>
-      <c r="M265" t="s">
-        <v>310</v>
+      <c r="M265">
+        <v>415</v>
       </c>
       <c r="N265">
         <v>0</v>
@@ -15687,8 +14454,8 @@
       <c r="B266">
         <v>0</v>
       </c>
-      <c r="C266" t="s">
-        <v>109</v>
+      <c r="C266">
+        <v>714</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -15699,8 +14466,8 @@
       <c r="F266">
         <v>0</v>
       </c>
-      <c r="G266" t="s">
-        <v>17</v>
+      <c r="G266">
+        <v>237</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -15717,8 +14484,8 @@
       <c r="L266">
         <v>0</v>
       </c>
-      <c r="M266" t="s">
-        <v>293</v>
+      <c r="M266">
+        <v>441</v>
       </c>
       <c r="N266">
         <v>0</v>
@@ -15737,8 +14504,8 @@
       <c r="A267">
         <v>265</v>
       </c>
-      <c r="B267" t="s">
-        <v>64</v>
+      <c r="B267">
+        <v>266</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -15776,8 +14543,8 @@
       <c r="N267">
         <v>0</v>
       </c>
-      <c r="O267" t="s">
-        <v>21</v>
+      <c r="O267">
+        <v>240</v>
       </c>
       <c r="P267">
         <v>0</v>
@@ -15805,8 +14572,8 @@
       <c r="F268">
         <v>0</v>
       </c>
-      <c r="G268" t="s">
-        <v>12</v>
+      <c r="G268">
+        <v>229</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -15823,8 +14590,8 @@
       <c r="L268">
         <v>0</v>
       </c>
-      <c r="M268" t="s">
-        <v>244</v>
+      <c r="M268">
+        <v>424</v>
       </c>
       <c r="N268">
         <v>0</v>
@@ -15858,8 +14625,8 @@
       <c r="F269">
         <v>0</v>
       </c>
-      <c r="G269" t="s">
-        <v>185</v>
+      <c r="G269">
+        <v>202</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -15876,8 +14643,8 @@
       <c r="L269">
         <v>0</v>
       </c>
-      <c r="M269" t="s">
-        <v>311</v>
+      <c r="M269">
+        <v>378</v>
       </c>
       <c r="N269">
         <v>0</v>
@@ -15935,8 +14702,8 @@
       <c r="N270">
         <v>0</v>
       </c>
-      <c r="O270" t="s">
-        <v>61</v>
+      <c r="O270">
+        <v>241</v>
       </c>
       <c r="P270">
         <v>0</v>
@@ -15961,8 +14728,8 @@
       <c r="E271">
         <v>0</v>
       </c>
-      <c r="F271" t="s">
-        <v>169</v>
+      <c r="F271">
+        <v>270</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -16017,8 +14784,8 @@
       <c r="F272">
         <v>0</v>
       </c>
-      <c r="G272" t="s">
-        <v>221</v>
+      <c r="G272">
+        <v>98</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -16035,8 +14802,8 @@
       <c r="L272">
         <v>0</v>
       </c>
-      <c r="M272" t="s">
-        <v>312</v>
+      <c r="M272">
+        <v>422</v>
       </c>
       <c r="N272">
         <v>0</v>
@@ -16067,8 +14834,8 @@
       <c r="E273">
         <v>0</v>
       </c>
-      <c r="F273" t="s">
-        <v>170</v>
+      <c r="F273">
+        <v>1371</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -16123,8 +14890,8 @@
       <c r="F274">
         <v>0</v>
       </c>
-      <c r="G274" t="s">
-        <v>36</v>
+      <c r="G274">
+        <v>168</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -16141,8 +14908,8 @@
       <c r="L274">
         <v>0</v>
       </c>
-      <c r="M274" t="s">
-        <v>313</v>
+      <c r="M274">
+        <v>344</v>
       </c>
       <c r="N274">
         <v>0</v>
@@ -16197,14 +14964,14 @@
       <c r="M275">
         <v>0</v>
       </c>
-      <c r="N275" t="s">
-        <v>386</v>
+      <c r="N275">
+        <v>1086</v>
       </c>
       <c r="O275">
         <v>0</v>
       </c>
-      <c r="P275" t="s">
-        <v>77</v>
+      <c r="P275">
+        <v>205</v>
       </c>
       <c r="Q275">
         <v>0</v>
@@ -16250,14 +15017,14 @@
       <c r="M276">
         <v>0</v>
       </c>
-      <c r="N276" t="s">
-        <v>387</v>
+      <c r="N276">
+        <v>942</v>
       </c>
       <c r="O276">
         <v>0</v>
       </c>
-      <c r="P276" t="s">
-        <v>44</v>
+      <c r="P276">
+        <v>232</v>
       </c>
       <c r="Q276">
         <v>0</v>
@@ -16267,8 +15034,8 @@
       <c r="A277">
         <v>275</v>
       </c>
-      <c r="B277" t="s">
-        <v>24</v>
+      <c r="B277">
+        <v>183</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -16282,8 +15049,8 @@
       <c r="F277">
         <v>0</v>
       </c>
-      <c r="G277" t="s">
-        <v>75</v>
+      <c r="G277">
+        <v>174</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -16300,8 +15067,8 @@
       <c r="L277">
         <v>0</v>
       </c>
-      <c r="M277" t="s">
-        <v>260</v>
+      <c r="M277">
+        <v>394</v>
       </c>
       <c r="N277">
         <v>0</v>
@@ -16320,8 +15087,8 @@
       <c r="A278">
         <v>276</v>
       </c>
-      <c r="B278" t="s">
-        <v>13</v>
+      <c r="B278">
+        <v>206</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -16335,8 +15102,8 @@
       <c r="F278">
         <v>0</v>
       </c>
-      <c r="G278" t="s">
-        <v>82</v>
+      <c r="G278">
+        <v>213</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -16353,8 +15120,8 @@
       <c r="L278">
         <v>0</v>
       </c>
-      <c r="M278" t="s">
-        <v>314</v>
+      <c r="M278">
+        <v>453</v>
       </c>
       <c r="N278">
         <v>0</v>
@@ -16409,14 +15176,14 @@
       <c r="M279">
         <v>0</v>
       </c>
-      <c r="N279" t="s">
-        <v>383</v>
+      <c r="N279">
+        <v>924</v>
       </c>
       <c r="O279">
         <v>0</v>
       </c>
-      <c r="P279" t="s">
-        <v>214</v>
+      <c r="P279">
+        <v>243</v>
       </c>
       <c r="Q279">
         <v>0</v>
@@ -16441,8 +15208,8 @@
       <c r="F280">
         <v>0</v>
       </c>
-      <c r="G280" t="s">
-        <v>30</v>
+      <c r="G280">
+        <v>256</v>
       </c>
       <c r="H280">
         <v>0</v>
@@ -16459,8 +15226,8 @@
       <c r="L280">
         <v>0</v>
       </c>
-      <c r="M280" t="s">
-        <v>312</v>
+      <c r="M280">
+        <v>422</v>
       </c>
       <c r="N280">
         <v>0</v>
@@ -16479,8 +15246,8 @@
       <c r="A281">
         <v>279</v>
       </c>
-      <c r="B281" t="s">
-        <v>15</v>
+      <c r="B281">
+        <v>222</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -16491,8 +15258,8 @@
       <c r="E281">
         <v>0</v>
       </c>
-      <c r="F281" t="s">
-        <v>60</v>
+      <c r="F281">
+        <v>215</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -16544,8 +15311,8 @@
       <c r="E282">
         <v>0</v>
       </c>
-      <c r="F282" t="s">
-        <v>47</v>
+      <c r="F282">
+        <v>242</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -16585,8 +15352,8 @@
       <c r="A283">
         <v>281</v>
       </c>
-      <c r="B283" t="s">
-        <v>65</v>
+      <c r="B283">
+        <v>209</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -16662,8 +15429,8 @@
       <c r="I284">
         <v>0</v>
       </c>
-      <c r="J284" t="s">
-        <v>17</v>
+      <c r="J284">
+        <v>237</v>
       </c>
       <c r="K284">
         <v>0</v>
@@ -16691,8 +15458,8 @@
       <c r="A285">
         <v>283</v>
       </c>
-      <c r="B285" t="s">
-        <v>60</v>
+      <c r="B285">
+        <v>215</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -16706,8 +15473,8 @@
       <c r="F285">
         <v>0</v>
       </c>
-      <c r="G285" t="s">
-        <v>180</v>
+      <c r="G285">
+        <v>250</v>
       </c>
       <c r="H285">
         <v>0</v>
@@ -16724,8 +15491,8 @@
       <c r="L285">
         <v>0</v>
       </c>
-      <c r="M285" t="s">
-        <v>315</v>
+      <c r="M285">
+        <v>461</v>
       </c>
       <c r="N285">
         <v>0</v>
@@ -16759,8 +15526,8 @@
       <c r="F286">
         <v>0</v>
       </c>
-      <c r="G286" t="s">
-        <v>9</v>
+      <c r="G286">
+        <v>238</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -16777,8 +15544,8 @@
       <c r="L286">
         <v>0</v>
       </c>
-      <c r="M286" t="s">
-        <v>264</v>
+      <c r="M286">
+        <v>452</v>
       </c>
       <c r="N286">
         <v>0</v>
@@ -16797,8 +15564,8 @@
       <c r="A287">
         <v>285</v>
       </c>
-      <c r="B287" t="s">
-        <v>27</v>
+      <c r="B287">
+        <v>179</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -16809,8 +15576,8 @@
       <c r="E287">
         <v>0</v>
       </c>
-      <c r="F287" t="s">
-        <v>58</v>
+      <c r="F287">
+        <v>312</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -16865,8 +15632,8 @@
       <c r="F288">
         <v>0</v>
       </c>
-      <c r="G288" t="s">
-        <v>201</v>
+      <c r="G288">
+        <v>269</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -16883,8 +15650,8 @@
       <c r="L288">
         <v>0</v>
       </c>
-      <c r="M288" t="s">
-        <v>286</v>
+      <c r="M288">
+        <v>475</v>
       </c>
       <c r="N288">
         <v>0</v>
@@ -16903,8 +15670,8 @@
       <c r="A289">
         <v>287</v>
       </c>
-      <c r="B289" t="s">
-        <v>65</v>
+      <c r="B289">
+        <v>209</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -16915,8 +15682,8 @@
       <c r="E289">
         <v>0</v>
       </c>
-      <c r="F289" t="s">
-        <v>171</v>
+      <c r="F289">
+        <v>245</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -16971,8 +15738,8 @@
       <c r="F290">
         <v>0</v>
       </c>
-      <c r="G290" t="s">
-        <v>222</v>
+      <c r="G290">
+        <v>469</v>
       </c>
       <c r="H290">
         <v>0</v>
@@ -16989,8 +15756,8 @@
       <c r="L290">
         <v>0</v>
       </c>
-      <c r="M290" t="s">
-        <v>316</v>
+      <c r="M290">
+        <v>644</v>
       </c>
       <c r="N290">
         <v>0</v>
@@ -17021,8 +15788,8 @@
       <c r="E291">
         <v>0</v>
       </c>
-      <c r="F291" t="s">
-        <v>172</v>
+      <c r="F291">
+        <v>224</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -17062,8 +15829,8 @@
       <c r="A292">
         <v>290</v>
       </c>
-      <c r="B292" t="s">
-        <v>66</v>
+      <c r="B292">
+        <v>397</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -17077,8 +15844,8 @@
       <c r="F292">
         <v>0</v>
       </c>
-      <c r="G292" t="s">
-        <v>53</v>
+      <c r="G292">
+        <v>218</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -17095,8 +15862,8 @@
       <c r="L292">
         <v>0</v>
       </c>
-      <c r="M292" t="s">
-        <v>240</v>
+      <c r="M292">
+        <v>420</v>
       </c>
       <c r="N292">
         <v>0</v>
@@ -17127,8 +15894,8 @@
       <c r="E293">
         <v>0</v>
       </c>
-      <c r="F293" t="s">
-        <v>151</v>
+      <c r="F293">
+        <v>225</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -17168,8 +15935,8 @@
       <c r="A294">
         <v>292</v>
       </c>
-      <c r="B294" t="s">
-        <v>67</v>
+      <c r="B294">
+        <v>504</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -17233,8 +16000,8 @@
       <c r="E295">
         <v>0</v>
       </c>
-      <c r="F295" t="s">
-        <v>173</v>
+      <c r="F295">
+        <v>1134</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -17286,8 +16053,8 @@
       <c r="E296">
         <v>0</v>
       </c>
-      <c r="F296" t="s">
-        <v>174</v>
+      <c r="F296">
+        <v>263</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -17327,8 +16094,8 @@
       <c r="A297">
         <v>295</v>
       </c>
-      <c r="B297" t="s">
-        <v>68</v>
+      <c r="B297">
+        <v>442</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -17342,8 +16109,8 @@
       <c r="F297">
         <v>0</v>
       </c>
-      <c r="G297" t="s">
-        <v>211</v>
+      <c r="G297">
+        <v>228</v>
       </c>
       <c r="H297">
         <v>0</v>
@@ -17360,8 +16127,8 @@
       <c r="L297">
         <v>0</v>
       </c>
-      <c r="M297" t="s">
-        <v>317</v>
+      <c r="M297">
+        <v>435</v>
       </c>
       <c r="N297">
         <v>0</v>
@@ -17416,14 +16183,14 @@
       <c r="M298">
         <v>0</v>
       </c>
-      <c r="N298" t="s">
-        <v>388</v>
+      <c r="N298">
+        <v>1148</v>
       </c>
       <c r="O298">
         <v>0</v>
       </c>
-      <c r="P298" t="s">
-        <v>64</v>
+      <c r="P298">
+        <v>266</v>
       </c>
       <c r="Q298">
         <v>0</v>
@@ -17433,8 +16200,8 @@
       <c r="A299">
         <v>297</v>
       </c>
-      <c r="B299" t="s">
-        <v>69</v>
+      <c r="B299">
+        <v>216</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -17445,8 +16212,8 @@
       <c r="E299">
         <v>0</v>
       </c>
-      <c r="F299" t="s">
-        <v>7</v>
+      <c r="F299">
+        <v>255</v>
       </c>
       <c r="G299">
         <v>0</v>
@@ -17522,14 +16289,14 @@
       <c r="M300">
         <v>0</v>
       </c>
-      <c r="N300" t="s">
-        <v>389</v>
+      <c r="N300">
+        <v>1122</v>
       </c>
       <c r="O300">
         <v>0</v>
       </c>
-      <c r="P300" t="s">
-        <v>83</v>
+      <c r="P300">
+        <v>257</v>
       </c>
       <c r="Q300">
         <v>0</v>
@@ -17539,8 +16306,8 @@
       <c r="A301">
         <v>299</v>
       </c>
-      <c r="B301" t="s">
-        <v>70</v>
+      <c r="B301">
+        <v>363</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -17551,8 +16318,8 @@
       <c r="E301">
         <v>0</v>
       </c>
-      <c r="F301" t="s">
-        <v>175</v>
+      <c r="F301">
+        <v>298</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -17628,14 +16395,14 @@
       <c r="M302">
         <v>0</v>
       </c>
-      <c r="N302" t="s">
-        <v>354</v>
+      <c r="N302">
+        <v>1052</v>
       </c>
       <c r="O302">
         <v>0</v>
       </c>
-      <c r="P302" t="s">
-        <v>35</v>
+      <c r="P302">
+        <v>313</v>
       </c>
       <c r="Q302">
         <v>0</v>
@@ -17681,14 +16448,14 @@
       <c r="M303">
         <v>0</v>
       </c>
-      <c r="N303" t="s">
-        <v>390</v>
+      <c r="N303">
+        <v>1017</v>
       </c>
       <c r="O303">
         <v>0</v>
       </c>
-      <c r="P303" t="s">
-        <v>422</v>
+      <c r="P303">
+        <v>291</v>
       </c>
       <c r="Q303">
         <v>0</v>
@@ -17710,8 +16477,8 @@
       <c r="E304">
         <v>0</v>
       </c>
-      <c r="F304" t="s">
-        <v>176</v>
+      <c r="F304">
+        <v>5</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -17751,8 +16518,8 @@
       <c r="A305">
         <v>303</v>
       </c>
-      <c r="B305" t="s">
-        <v>28</v>
+      <c r="B305">
+        <v>187</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -17766,8 +16533,8 @@
       <c r="F305">
         <v>0</v>
       </c>
-      <c r="G305" t="s">
-        <v>29</v>
+      <c r="G305">
+        <v>248</v>
       </c>
       <c r="H305">
         <v>0</v>
@@ -17784,8 +16551,8 @@
       <c r="L305">
         <v>0</v>
       </c>
-      <c r="M305" t="s">
-        <v>290</v>
+      <c r="M305">
+        <v>484</v>
       </c>
       <c r="N305">
         <v>0</v>
@@ -17816,8 +16583,8 @@
       <c r="E306">
         <v>0</v>
       </c>
-      <c r="F306" t="s">
-        <v>62</v>
+      <c r="F306">
+        <v>211</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -17872,8 +16639,8 @@
       <c r="F307">
         <v>0</v>
       </c>
-      <c r="G307" t="s">
-        <v>223</v>
+      <c r="G307">
+        <v>83</v>
       </c>
       <c r="H307">
         <v>0</v>
@@ -17890,8 +16657,8 @@
       <c r="L307">
         <v>0</v>
       </c>
-      <c r="M307" t="s">
-        <v>135</v>
+      <c r="M307">
+        <v>268</v>
       </c>
       <c r="N307">
         <v>0</v>
@@ -17910,8 +16677,8 @@
       <c r="A308">
         <v>306</v>
       </c>
-      <c r="B308" t="s">
-        <v>71</v>
+      <c r="B308">
+        <v>220</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -17922,8 +16689,8 @@
       <c r="E308">
         <v>0</v>
       </c>
-      <c r="F308" t="s">
-        <v>177</v>
+      <c r="F308">
+        <v>669</v>
       </c>
       <c r="G308">
         <v>0</v>
@@ -17978,8 +16745,8 @@
       <c r="F309">
         <v>0</v>
       </c>
-      <c r="G309" t="s">
-        <v>53</v>
+      <c r="G309">
+        <v>218</v>
       </c>
       <c r="H309">
         <v>0</v>
@@ -17996,8 +16763,8 @@
       <c r="L309">
         <v>0</v>
       </c>
-      <c r="M309" t="s">
-        <v>318</v>
+      <c r="M309">
+        <v>444</v>
       </c>
       <c r="N309">
         <v>0</v>
@@ -18031,8 +16798,8 @@
       <c r="F310">
         <v>0</v>
       </c>
-      <c r="G310" t="s">
-        <v>23</v>
+      <c r="G310">
+        <v>201</v>
       </c>
       <c r="H310">
         <v>0</v>
@@ -18049,8 +16816,8 @@
       <c r="L310">
         <v>0</v>
       </c>
-      <c r="M310" t="s">
-        <v>291</v>
+      <c r="M310">
+        <v>404</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -18072,8 +16839,8 @@
       <c r="B311">
         <v>0</v>
       </c>
-      <c r="C311" t="s">
-        <v>110</v>
+      <c r="C311">
+        <v>839</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -18084,8 +16851,8 @@
       <c r="F311">
         <v>0</v>
       </c>
-      <c r="G311" t="s">
-        <v>180</v>
+      <c r="G311">
+        <v>250</v>
       </c>
       <c r="H311">
         <v>0</v>
@@ -18102,8 +16869,8 @@
       <c r="L311">
         <v>0</v>
       </c>
-      <c r="M311" t="s">
-        <v>307</v>
+      <c r="M311">
+        <v>446</v>
       </c>
       <c r="N311">
         <v>0</v>
@@ -18134,8 +16901,8 @@
       <c r="E312">
         <v>0</v>
       </c>
-      <c r="F312" t="s">
-        <v>171</v>
+      <c r="F312">
+        <v>245</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -18264,14 +17031,14 @@
       <c r="M314">
         <v>0</v>
       </c>
-      <c r="N314" t="s">
-        <v>391</v>
+      <c r="N314">
+        <v>1048</v>
       </c>
       <c r="O314">
         <v>0</v>
       </c>
-      <c r="P314" t="s">
-        <v>155</v>
+      <c r="P314">
+        <v>177</v>
       </c>
       <c r="Q314">
         <v>0</v>
@@ -18281,8 +17048,8 @@
       <c r="A315">
         <v>313</v>
       </c>
-      <c r="B315" t="s">
-        <v>72</v>
+      <c r="B315">
+        <v>756</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -18296,8 +17063,8 @@
       <c r="F315">
         <v>0</v>
       </c>
-      <c r="G315" t="s">
-        <v>2</v>
+      <c r="G315">
+        <v>254</v>
       </c>
       <c r="H315">
         <v>0</v>
@@ -18314,8 +17081,8 @@
       <c r="L315">
         <v>0</v>
       </c>
-      <c r="M315" t="s">
-        <v>267</v>
+      <c r="M315">
+        <v>479</v>
       </c>
       <c r="N315">
         <v>0</v>
@@ -18346,8 +17113,8 @@
       <c r="E316">
         <v>0</v>
       </c>
-      <c r="F316" t="s">
-        <v>178</v>
+      <c r="F316">
+        <v>180</v>
       </c>
       <c r="G316">
         <v>0</v>
@@ -18402,8 +17169,8 @@
       <c r="F317">
         <v>0</v>
       </c>
-      <c r="G317" t="s">
-        <v>129</v>
+      <c r="G317">
+        <v>234</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -18420,8 +17187,8 @@
       <c r="L317">
         <v>0</v>
       </c>
-      <c r="M317" t="s">
-        <v>319</v>
+      <c r="M317">
+        <v>457</v>
       </c>
       <c r="N317">
         <v>0</v>
@@ -18440,8 +17207,8 @@
       <c r="A318">
         <v>316</v>
       </c>
-      <c r="B318" t="s">
-        <v>53</v>
+      <c r="B318">
+        <v>218</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -18455,8 +17222,8 @@
       <c r="F318">
         <v>0</v>
       </c>
-      <c r="G318" t="s">
-        <v>146</v>
+      <c r="G318">
+        <v>271</v>
       </c>
       <c r="H318">
         <v>0</v>
@@ -18473,8 +17240,8 @@
       <c r="L318">
         <v>0</v>
       </c>
-      <c r="M318" t="s">
-        <v>320</v>
+      <c r="M318">
+        <v>490</v>
       </c>
       <c r="N318">
         <v>0</v>
@@ -18532,8 +17299,8 @@
       <c r="N319">
         <v>0</v>
       </c>
-      <c r="O319" t="s">
-        <v>69</v>
+      <c r="O319">
+        <v>216</v>
       </c>
       <c r="P319">
         <v>0</v>
@@ -18561,8 +17328,8 @@
       <c r="F320">
         <v>0</v>
       </c>
-      <c r="G320" t="s">
-        <v>192</v>
+      <c r="G320">
+        <v>143</v>
       </c>
       <c r="H320">
         <v>0</v>
@@ -18579,8 +17346,8 @@
       <c r="L320">
         <v>0</v>
       </c>
-      <c r="M320" t="s">
-        <v>321</v>
+      <c r="M320">
+        <v>338</v>
       </c>
       <c r="N320">
         <v>0</v>
@@ -18635,14 +17402,14 @@
       <c r="M321">
         <v>0</v>
       </c>
-      <c r="N321" t="s">
-        <v>392</v>
+      <c r="N321">
+        <v>1013</v>
       </c>
       <c r="O321">
         <v>0</v>
       </c>
-      <c r="P321" t="s">
-        <v>172</v>
+      <c r="P321">
+        <v>224</v>
       </c>
       <c r="Q321">
         <v>0</v>
@@ -18655,8 +17422,8 @@
       <c r="B322">
         <v>0</v>
       </c>
-      <c r="C322" t="s">
-        <v>111</v>
+      <c r="C322">
+        <v>634</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -18688,14 +17455,14 @@
       <c r="M322">
         <v>0</v>
       </c>
-      <c r="N322" t="s">
-        <v>393</v>
+      <c r="N322">
+        <v>900</v>
       </c>
       <c r="O322">
         <v>0</v>
       </c>
-      <c r="P322" t="s">
-        <v>63</v>
+      <c r="P322">
+        <v>197</v>
       </c>
       <c r="Q322">
         <v>0</v>
@@ -18717,8 +17484,8 @@
       <c r="E323">
         <v>0</v>
       </c>
-      <c r="F323" t="s">
-        <v>83</v>
+      <c r="F323">
+        <v>257</v>
       </c>
       <c r="G323">
         <v>0</v>
@@ -18814,8 +17581,8 @@
       <c r="B325">
         <v>0</v>
       </c>
-      <c r="C325" t="s">
-        <v>112</v>
+      <c r="C325">
+        <v>855</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -18847,14 +17614,14 @@
       <c r="M325">
         <v>0</v>
       </c>
-      <c r="N325" t="s">
-        <v>394</v>
+      <c r="N325">
+        <v>961</v>
       </c>
       <c r="O325">
         <v>0</v>
       </c>
-      <c r="P325" t="s">
-        <v>152</v>
+      <c r="P325">
+        <v>217</v>
       </c>
       <c r="Q325">
         <v>0</v>
@@ -18879,8 +17646,8 @@
       <c r="F326">
         <v>0</v>
       </c>
-      <c r="G326" t="s">
-        <v>219</v>
+      <c r="G326">
+        <v>236</v>
       </c>
       <c r="H326">
         <v>0</v>
@@ -18897,8 +17664,8 @@
       <c r="L326">
         <v>0</v>
       </c>
-      <c r="M326" t="s">
-        <v>286</v>
+      <c r="M326">
+        <v>475</v>
       </c>
       <c r="N326">
         <v>0</v>
@@ -18929,8 +17696,8 @@
       <c r="E327">
         <v>0</v>
       </c>
-      <c r="F327" t="s">
-        <v>179</v>
+      <c r="F327">
+        <v>233</v>
       </c>
       <c r="G327">
         <v>0</v>
@@ -19006,14 +17773,14 @@
       <c r="M328">
         <v>0</v>
       </c>
-      <c r="N328" t="s">
-        <v>395</v>
+      <c r="N328">
+        <v>909</v>
       </c>
       <c r="O328">
         <v>0</v>
       </c>
-      <c r="P328" t="s">
-        <v>56</v>
+      <c r="P328">
+        <v>223</v>
       </c>
       <c r="Q328">
         <v>0</v>
@@ -19038,8 +17805,8 @@
       <c r="F329">
         <v>0</v>
       </c>
-      <c r="G329" t="s">
-        <v>5</v>
+      <c r="G329">
+        <v>193</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -19056,8 +17823,8 @@
       <c r="L329">
         <v>0</v>
       </c>
-      <c r="M329" t="s">
-        <v>66</v>
+      <c r="M329">
+        <v>397</v>
       </c>
       <c r="N329">
         <v>0</v>
@@ -19076,8 +17843,8 @@
       <c r="A330">
         <v>328</v>
       </c>
-      <c r="B330" t="s">
-        <v>73</v>
+      <c r="B330">
+        <v>330</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -19091,8 +17858,8 @@
       <c r="F330">
         <v>0</v>
       </c>
-      <c r="G330" t="s">
-        <v>152</v>
+      <c r="G330">
+        <v>217</v>
       </c>
       <c r="H330">
         <v>0</v>
@@ -19109,8 +17876,8 @@
       <c r="L330">
         <v>0</v>
       </c>
-      <c r="M330" t="s">
-        <v>322</v>
+      <c r="M330">
+        <v>400</v>
       </c>
       <c r="N330">
         <v>0</v>
@@ -19129,8 +17896,8 @@
       <c r="A331">
         <v>329</v>
       </c>
-      <c r="B331" t="s">
-        <v>74</v>
+      <c r="B331">
+        <v>392</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -19168,8 +17935,8 @@
       <c r="N331">
         <v>0</v>
       </c>
-      <c r="O331" t="s">
-        <v>203</v>
+      <c r="O331">
+        <v>367</v>
       </c>
       <c r="P331">
         <v>0</v>
@@ -19218,14 +17985,14 @@
       <c r="M332">
         <v>0</v>
       </c>
-      <c r="N332" t="s">
-        <v>396</v>
+      <c r="N332">
+        <v>957</v>
       </c>
       <c r="O332">
         <v>0</v>
       </c>
-      <c r="P332" t="s">
-        <v>63</v>
+      <c r="P332">
+        <v>197</v>
       </c>
       <c r="Q332">
         <v>0</v>
@@ -19235,8 +18002,8 @@
       <c r="A333">
         <v>331</v>
       </c>
-      <c r="B333" t="s">
-        <v>75</v>
+      <c r="B333">
+        <v>174</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -19250,8 +18017,8 @@
       <c r="F333">
         <v>0</v>
       </c>
-      <c r="G333" t="s">
-        <v>44</v>
+      <c r="G333">
+        <v>232</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -19268,8 +18035,8 @@
       <c r="L333">
         <v>0</v>
       </c>
-      <c r="M333" t="s">
-        <v>247</v>
+      <c r="M333">
+        <v>476</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -19327,8 +18094,8 @@
       <c r="N334">
         <v>0</v>
       </c>
-      <c r="O334" t="s">
-        <v>180</v>
+      <c r="O334">
+        <v>250</v>
       </c>
       <c r="P334">
         <v>0</v>
@@ -19344,8 +18111,8 @@
       <c r="B335">
         <v>0</v>
       </c>
-      <c r="C335" t="s">
-        <v>113</v>
+      <c r="C335">
+        <v>754</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -19356,8 +18123,8 @@
       <c r="F335">
         <v>0</v>
       </c>
-      <c r="G335" t="s">
-        <v>224</v>
+      <c r="G335">
+        <v>212</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -19374,8 +18141,8 @@
       <c r="L335">
         <v>0</v>
       </c>
-      <c r="M335" t="s">
-        <v>244</v>
+      <c r="M335">
+        <v>424</v>
       </c>
       <c r="N335">
         <v>0</v>
@@ -19430,14 +18197,14 @@
       <c r="M336">
         <v>0</v>
       </c>
-      <c r="N336" t="s">
-        <v>397</v>
+      <c r="N336">
+        <v>917</v>
       </c>
       <c r="O336">
         <v>0</v>
       </c>
-      <c r="P336" t="s">
-        <v>55</v>
+      <c r="P336">
+        <v>251</v>
       </c>
       <c r="Q336">
         <v>0</v>
@@ -19462,8 +18229,8 @@
       <c r="F337">
         <v>0</v>
       </c>
-      <c r="G337" t="s">
-        <v>84</v>
+      <c r="G337">
+        <v>189</v>
       </c>
       <c r="H337">
         <v>0</v>
@@ -19480,8 +18247,8 @@
       <c r="L337">
         <v>0</v>
       </c>
-      <c r="M337" t="s">
-        <v>323</v>
+      <c r="M337">
+        <v>402</v>
       </c>
       <c r="N337">
         <v>0</v>
@@ -19536,14 +18303,14 @@
       <c r="M338">
         <v>0</v>
       </c>
-      <c r="N338" t="s">
-        <v>336</v>
+      <c r="N338">
+        <v>935</v>
       </c>
       <c r="O338">
         <v>0</v>
       </c>
-      <c r="P338" t="s">
-        <v>45</v>
+      <c r="P338">
+        <v>207</v>
       </c>
       <c r="Q338">
         <v>0</v>
@@ -19565,8 +18332,8 @@
       <c r="E339">
         <v>0</v>
       </c>
-      <c r="F339" t="s">
-        <v>180</v>
+      <c r="F339">
+        <v>250</v>
       </c>
       <c r="G339">
         <v>0</v>
@@ -19618,8 +18385,8 @@
       <c r="E340">
         <v>0</v>
       </c>
-      <c r="F340" t="s">
-        <v>181</v>
+      <c r="F340">
+        <v>414</v>
       </c>
       <c r="G340">
         <v>0</v>
@@ -19695,14 +18462,14 @@
       <c r="M341">
         <v>0</v>
       </c>
-      <c r="N341" t="s">
-        <v>398</v>
+      <c r="N341">
+        <v>1066</v>
       </c>
       <c r="O341">
         <v>0</v>
       </c>
-      <c r="P341" t="s">
-        <v>3</v>
+      <c r="P341">
+        <v>306</v>
       </c>
       <c r="Q341">
         <v>0</v>
@@ -19712,8 +18479,8 @@
       <c r="A342">
         <v>340</v>
       </c>
-      <c r="B342" t="s">
-        <v>76</v>
+      <c r="B342">
+        <v>169</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -19724,8 +18491,8 @@
       <c r="E342">
         <v>0</v>
       </c>
-      <c r="F342" t="s">
-        <v>182</v>
+      <c r="F342">
+        <v>191</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -19780,8 +18547,8 @@
       <c r="F343">
         <v>0</v>
       </c>
-      <c r="G343" t="s">
-        <v>225</v>
+      <c r="G343">
+        <v>176</v>
       </c>
       <c r="H343">
         <v>0</v>
@@ -19798,8 +18565,8 @@
       <c r="L343">
         <v>0</v>
       </c>
-      <c r="M343" t="s">
-        <v>263</v>
+      <c r="M343">
+        <v>455</v>
       </c>
       <c r="N343">
         <v>0</v>
@@ -19821,8 +18588,8 @@
       <c r="B344">
         <v>0</v>
       </c>
-      <c r="C344" t="s">
-        <v>114</v>
+      <c r="C344">
+        <v>814</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -19857,8 +18624,8 @@
       <c r="N344">
         <v>0</v>
       </c>
-      <c r="O344" t="s">
-        <v>155</v>
+      <c r="O344">
+        <v>177</v>
       </c>
       <c r="P344">
         <v>0</v>
@@ -19886,8 +18653,8 @@
       <c r="F345">
         <v>0</v>
       </c>
-      <c r="G345" t="s">
-        <v>47</v>
+      <c r="G345">
+        <v>242</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -19904,8 +18671,8 @@
       <c r="L345">
         <v>0</v>
       </c>
-      <c r="M345" t="s">
-        <v>318</v>
+      <c r="M345">
+        <v>444</v>
       </c>
       <c r="N345">
         <v>0</v>
@@ -19924,8 +18691,8 @@
       <c r="A346">
         <v>344</v>
       </c>
-      <c r="B346" t="s">
-        <v>57</v>
+      <c r="B346">
+        <v>282</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -19939,8 +18706,8 @@
       <c r="F346">
         <v>0</v>
       </c>
-      <c r="G346" t="s">
-        <v>65</v>
+      <c r="G346">
+        <v>209</v>
       </c>
       <c r="H346">
         <v>0</v>
@@ -19957,8 +18724,8 @@
       <c r="L346">
         <v>0</v>
       </c>
-      <c r="M346" t="s">
-        <v>324</v>
+      <c r="M346">
+        <v>431</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -19992,8 +18759,8 @@
       <c r="F347">
         <v>0</v>
       </c>
-      <c r="G347" t="s">
-        <v>200</v>
+      <c r="G347">
+        <v>173</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -20010,8 +18777,8 @@
       <c r="L347">
         <v>0</v>
       </c>
-      <c r="M347" t="s">
-        <v>325</v>
+      <c r="M347">
+        <v>386</v>
       </c>
       <c r="N347">
         <v>0</v>
@@ -20030,8 +18797,8 @@
       <c r="A348">
         <v>346</v>
       </c>
-      <c r="B348" t="s">
-        <v>77</v>
+      <c r="B348">
+        <v>205</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -20045,8 +18812,8 @@
       <c r="F348">
         <v>0</v>
       </c>
-      <c r="G348" t="s">
-        <v>167</v>
+      <c r="G348">
+        <v>221</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -20063,8 +18830,8 @@
       <c r="L348">
         <v>0</v>
       </c>
-      <c r="M348" t="s">
-        <v>278</v>
+      <c r="M348">
+        <v>408</v>
       </c>
       <c r="N348">
         <v>0</v>
@@ -20086,8 +18853,8 @@
       <c r="B349">
         <v>0</v>
       </c>
-      <c r="C349" t="s">
-        <v>115</v>
+      <c r="C349">
+        <v>992</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -20098,8 +18865,8 @@
       <c r="F349">
         <v>0</v>
       </c>
-      <c r="G349" t="s">
-        <v>23</v>
+      <c r="G349">
+        <v>201</v>
       </c>
       <c r="H349">
         <v>0</v>
@@ -20116,8 +18883,8 @@
       <c r="L349">
         <v>0</v>
       </c>
-      <c r="M349" t="s">
-        <v>272</v>
+      <c r="M349">
+        <v>430</v>
       </c>
       <c r="N349">
         <v>0</v>
@@ -20139,8 +18906,8 @@
       <c r="B350">
         <v>0</v>
       </c>
-      <c r="C350" t="s">
-        <v>116</v>
+      <c r="C350">
+        <v>905</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -20172,14 +18939,14 @@
       <c r="M350">
         <v>0</v>
       </c>
-      <c r="N350" t="s">
-        <v>399</v>
+      <c r="N350">
+        <v>811</v>
       </c>
       <c r="O350">
         <v>0</v>
       </c>
-      <c r="P350" t="s">
-        <v>423</v>
+      <c r="P350">
+        <v>138</v>
       </c>
       <c r="Q350">
         <v>0</v>
@@ -20189,8 +18956,8 @@
       <c r="A351">
         <v>349</v>
       </c>
-      <c r="B351" t="s">
-        <v>78</v>
+      <c r="B351">
+        <v>190</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -20201,8 +18968,8 @@
       <c r="E351">
         <v>0</v>
       </c>
-      <c r="F351" t="s">
-        <v>141</v>
+      <c r="F351">
+        <v>327</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -20257,8 +19024,8 @@
       <c r="F352">
         <v>0</v>
       </c>
-      <c r="G352" t="s">
-        <v>20</v>
+      <c r="G352">
+        <v>244</v>
       </c>
       <c r="H352">
         <v>0</v>
@@ -20275,8 +19042,8 @@
       <c r="L352">
         <v>0</v>
       </c>
-      <c r="M352" t="s">
-        <v>188</v>
+      <c r="M352">
+        <v>472</v>
       </c>
       <c r="N352">
         <v>0</v>
@@ -20334,8 +19101,8 @@
       <c r="N353">
         <v>0</v>
       </c>
-      <c r="O353" t="s">
-        <v>214</v>
+      <c r="O353">
+        <v>243</v>
       </c>
       <c r="P353">
         <v>0</v>
@@ -20437,14 +19204,14 @@
       <c r="M355">
         <v>0</v>
       </c>
-      <c r="N355" t="s">
-        <v>394</v>
+      <c r="N355">
+        <v>961</v>
       </c>
       <c r="O355">
         <v>0</v>
       </c>
-      <c r="P355" t="s">
-        <v>424</v>
+      <c r="P355">
+        <v>299</v>
       </c>
       <c r="Q355">
         <v>0</v>
@@ -20466,8 +19233,8 @@
       <c r="E356">
         <v>0</v>
       </c>
-      <c r="F356" t="s">
-        <v>183</v>
+      <c r="F356">
+        <v>341</v>
       </c>
       <c r="G356">
         <v>0</v>
@@ -20507,8 +19274,8 @@
       <c r="A357">
         <v>355</v>
       </c>
-      <c r="B357" t="s">
-        <v>79</v>
+      <c r="B357">
+        <v>258</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -20522,8 +19289,8 @@
       <c r="F357">
         <v>0</v>
       </c>
-      <c r="G357" t="s">
-        <v>128</v>
+      <c r="G357">
+        <v>184</v>
       </c>
       <c r="H357">
         <v>0</v>
@@ -20540,8 +19307,8 @@
       <c r="L357">
         <v>0</v>
       </c>
-      <c r="M357" t="s">
-        <v>326</v>
+      <c r="M357">
+        <v>384</v>
       </c>
       <c r="N357">
         <v>0</v>
@@ -20572,8 +19339,8 @@
       <c r="E358">
         <v>0</v>
       </c>
-      <c r="F358" t="s">
-        <v>184</v>
+      <c r="F358">
+        <v>1354</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -20652,8 +19419,8 @@
       <c r="N359">
         <v>0</v>
       </c>
-      <c r="O359" t="s">
-        <v>29</v>
+      <c r="O359">
+        <v>248</v>
       </c>
       <c r="P359">
         <v>0</v>
@@ -20666,8 +19433,8 @@
       <c r="A360">
         <v>358</v>
       </c>
-      <c r="B360" t="s">
-        <v>80</v>
+      <c r="B360">
+        <v>239</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -20705,8 +19472,8 @@
       <c r="N360">
         <v>0</v>
       </c>
-      <c r="O360" t="s">
-        <v>13</v>
+      <c r="O360">
+        <v>206</v>
       </c>
       <c r="P360">
         <v>0</v>
@@ -20731,8 +19498,8 @@
       <c r="E361">
         <v>0</v>
       </c>
-      <c r="F361" t="s">
-        <v>185</v>
+      <c r="F361">
+        <v>202</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -20775,8 +19542,8 @@
       <c r="B362">
         <v>0</v>
       </c>
-      <c r="C362" t="s">
-        <v>98</v>
+      <c r="C362">
+        <v>777</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -20787,8 +19554,8 @@
       <c r="F362">
         <v>0</v>
       </c>
-      <c r="G362" t="s">
-        <v>178</v>
+      <c r="G362">
+        <v>180</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -20805,8 +19572,8 @@
       <c r="L362">
         <v>0</v>
       </c>
-      <c r="M362" t="s">
-        <v>327</v>
+      <c r="M362">
+        <v>409</v>
       </c>
       <c r="N362">
         <v>0</v>
@@ -20840,8 +19607,8 @@
       <c r="F363">
         <v>0</v>
       </c>
-      <c r="G363" t="s">
-        <v>226</v>
+      <c r="G363">
+        <v>186</v>
       </c>
       <c r="H363">
         <v>0</v>
@@ -20858,8 +19625,8 @@
       <c r="L363">
         <v>0</v>
       </c>
-      <c r="M363" t="s">
-        <v>328</v>
+      <c r="M363">
+        <v>423</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -20878,8 +19645,8 @@
       <c r="A364">
         <v>362</v>
       </c>
-      <c r="B364" t="s">
-        <v>81</v>
+      <c r="B364">
+        <v>374</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -20893,8 +19660,8 @@
       <c r="F364">
         <v>0</v>
       </c>
-      <c r="G364" t="s">
-        <v>227</v>
+      <c r="G364">
+        <v>145</v>
       </c>
       <c r="H364">
         <v>0</v>
@@ -20911,8 +19678,8 @@
       <c r="L364">
         <v>0</v>
       </c>
-      <c r="M364" t="s">
-        <v>329</v>
+      <c r="M364">
+        <v>358</v>
       </c>
       <c r="N364">
         <v>0</v>
@@ -20946,8 +19713,8 @@
       <c r="F365">
         <v>0</v>
       </c>
-      <c r="G365" t="s">
-        <v>228</v>
+      <c r="G365">
+        <v>160</v>
       </c>
       <c r="H365">
         <v>0</v>
@@ -20964,8 +19731,8 @@
       <c r="L365">
         <v>0</v>
       </c>
-      <c r="M365" t="s">
-        <v>330</v>
+      <c r="M365">
+        <v>357</v>
       </c>
       <c r="N365">
         <v>0</v>
@@ -20999,8 +19766,8 @@
       <c r="F366">
         <v>0</v>
       </c>
-      <c r="G366" t="s">
-        <v>229</v>
+      <c r="G366">
+        <v>828</v>
       </c>
       <c r="H366">
         <v>0</v>
@@ -21017,8 +19784,8 @@
       <c r="L366">
         <v>0</v>
       </c>
-      <c r="M366" t="s">
-        <v>331</v>
+      <c r="M366">
+        <v>980</v>
       </c>
       <c r="N366">
         <v>0</v>
@@ -21037,8 +19804,8 @@
       <c r="A367">
         <v>365</v>
       </c>
-      <c r="B367" t="s">
-        <v>26</v>
+      <c r="B367">
+        <v>249</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -21049,8 +19816,8 @@
       <c r="E367">
         <v>0</v>
       </c>
-      <c r="F367" t="s">
-        <v>174</v>
+      <c r="F367">
+        <v>263</v>
       </c>
       <c r="G367">
         <v>0</v>
@@ -21090,8 +19857,8 @@
       <c r="A368">
         <v>366</v>
       </c>
-      <c r="B368" t="s">
-        <v>48</v>
+      <c r="B368">
+        <v>194</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -21126,14 +19893,14 @@
       <c r="M368">
         <v>0</v>
       </c>
-      <c r="N368" t="s">
-        <v>400</v>
+      <c r="N368">
+        <v>1015</v>
       </c>
       <c r="O368">
         <v>0</v>
       </c>
-      <c r="P368" t="s">
-        <v>60</v>
+      <c r="P368">
+        <v>215</v>
       </c>
       <c r="Q368">
         <v>0</v>
@@ -21158,8 +19925,8 @@
       <c r="F369">
         <v>0</v>
       </c>
-      <c r="G369" t="s">
-        <v>49</v>
+      <c r="G369">
+        <v>437</v>
       </c>
       <c r="H369">
         <v>0</v>
@@ -21176,8 +19943,8 @@
       <c r="L369">
         <v>0</v>
       </c>
-      <c r="M369" t="s">
-        <v>316</v>
+      <c r="M369">
+        <v>644</v>
       </c>
       <c r="N369">
         <v>0</v>
@@ -21208,8 +19975,8 @@
       <c r="E370">
         <v>0</v>
       </c>
-      <c r="F370" t="s">
-        <v>186</v>
+      <c r="F370">
+        <v>156</v>
       </c>
       <c r="G370">
         <v>0</v>
@@ -21252,8 +20019,8 @@
       <c r="B371">
         <v>0</v>
       </c>
-      <c r="C371" t="s">
-        <v>117</v>
+      <c r="C371">
+        <v>826</v>
       </c>
       <c r="D371">
         <v>0</v>
@@ -21264,8 +20031,8 @@
       <c r="F371">
         <v>0</v>
       </c>
-      <c r="G371" t="s">
-        <v>155</v>
+      <c r="G371">
+        <v>177</v>
       </c>
       <c r="H371">
         <v>0</v>
@@ -21282,8 +20049,8 @@
       <c r="L371">
         <v>0</v>
       </c>
-      <c r="M371" t="s">
-        <v>322</v>
+      <c r="M371">
+        <v>400</v>
       </c>
       <c r="N371">
         <v>0</v>
@@ -21341,8 +20108,8 @@
       <c r="N372">
         <v>0</v>
       </c>
-      <c r="O372" t="s">
-        <v>411</v>
+      <c r="O372">
+        <v>272</v>
       </c>
       <c r="P372">
         <v>0</v>
@@ -21370,8 +20137,8 @@
       <c r="F373">
         <v>0</v>
       </c>
-      <c r="G373" t="s">
-        <v>167</v>
+      <c r="G373">
+        <v>221</v>
       </c>
       <c r="H373">
         <v>0</v>
@@ -21388,8 +20155,8 @@
       <c r="L373">
         <v>0</v>
       </c>
-      <c r="M373" t="s">
-        <v>101</v>
+      <c r="M373">
+        <v>720</v>
       </c>
       <c r="N373">
         <v>0</v>
@@ -21420,8 +20187,8 @@
       <c r="E374">
         <v>0</v>
       </c>
-      <c r="F374" t="s">
-        <v>187</v>
+      <c r="F374">
+        <v>1417</v>
       </c>
       <c r="G374">
         <v>0</v>
@@ -21461,8 +20228,8 @@
       <c r="A375">
         <v>373</v>
       </c>
-      <c r="B375" t="s">
-        <v>10</v>
+      <c r="B375">
+        <v>286</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -21497,14 +20264,14 @@
       <c r="M375">
         <v>0</v>
       </c>
-      <c r="N375" t="s">
-        <v>401</v>
+      <c r="N375">
+        <v>1255</v>
       </c>
       <c r="O375">
         <v>0</v>
       </c>
-      <c r="P375" t="s">
-        <v>425</v>
+      <c r="P375">
+        <v>153</v>
       </c>
       <c r="Q375">
         <v>0</v>
@@ -21529,8 +20296,8 @@
       <c r="F376">
         <v>0</v>
       </c>
-      <c r="G376" t="s">
-        <v>202</v>
+      <c r="G376">
+        <v>155</v>
       </c>
       <c r="H376">
         <v>0</v>
@@ -21547,8 +20314,8 @@
       <c r="L376">
         <v>0</v>
       </c>
-      <c r="M376" t="s">
-        <v>242</v>
+      <c r="M376">
+        <v>361</v>
       </c>
       <c r="N376">
         <v>0</v>
@@ -21579,8 +20346,8 @@
       <c r="E377">
         <v>0</v>
       </c>
-      <c r="F377" t="s">
-        <v>180</v>
+      <c r="F377">
+        <v>250</v>
       </c>
       <c r="G377">
         <v>0</v>
@@ -21620,8 +20387,8 @@
       <c r="A378">
         <v>376</v>
       </c>
-      <c r="B378" t="s">
-        <v>82</v>
+      <c r="B378">
+        <v>213</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -21632,8 +20399,8 @@
       <c r="E378">
         <v>0</v>
       </c>
-      <c r="F378" t="s">
-        <v>188</v>
+      <c r="F378">
+        <v>472</v>
       </c>
       <c r="G378">
         <v>0</v>
@@ -21676,8 +20443,8 @@
       <c r="B379">
         <v>0</v>
       </c>
-      <c r="C379" t="s">
-        <v>118</v>
+      <c r="C379">
+        <v>712</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -21688,8 +20455,8 @@
       <c r="F379">
         <v>0</v>
       </c>
-      <c r="G379" t="s">
-        <v>230</v>
+      <c r="G379">
+        <v>181</v>
       </c>
       <c r="H379">
         <v>0</v>
@@ -21706,8 +20473,8 @@
       <c r="L379">
         <v>0</v>
       </c>
-      <c r="M379" t="s">
-        <v>293</v>
+      <c r="M379">
+        <v>441</v>
       </c>
       <c r="N379">
         <v>0</v>
@@ -21729,8 +20496,8 @@
       <c r="B380">
         <v>0</v>
       </c>
-      <c r="C380" t="s">
-        <v>119</v>
+      <c r="C380">
+        <v>790</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -21741,8 +20508,8 @@
       <c r="F380">
         <v>0</v>
       </c>
-      <c r="G380" t="s">
-        <v>42</v>
+      <c r="G380">
+        <v>214</v>
       </c>
       <c r="H380">
         <v>0</v>
@@ -21759,8 +20526,8 @@
       <c r="L380">
         <v>0</v>
       </c>
-      <c r="M380" t="s">
-        <v>314</v>
+      <c r="M380">
+        <v>453</v>
       </c>
       <c r="N380">
         <v>0</v>
@@ -21818,8 +20585,8 @@
       <c r="N381">
         <v>0</v>
       </c>
-      <c r="O381" t="s">
-        <v>412</v>
+      <c r="O381">
+        <v>289</v>
       </c>
       <c r="P381">
         <v>0</v>
@@ -21832,8 +20599,8 @@
       <c r="A382">
         <v>380</v>
       </c>
-      <c r="B382" t="s">
-        <v>83</v>
+      <c r="B382">
+        <v>257</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -21844,8 +20611,8 @@
       <c r="E382">
         <v>0</v>
       </c>
-      <c r="F382" t="s">
-        <v>189</v>
+      <c r="F382">
+        <v>526</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -21921,14 +20688,14 @@
       <c r="M383">
         <v>0</v>
       </c>
-      <c r="N383" t="s">
-        <v>402</v>
+      <c r="N383">
+        <v>1098</v>
       </c>
       <c r="O383">
         <v>0</v>
       </c>
-      <c r="P383" t="s">
-        <v>179</v>
+      <c r="P383">
+        <v>233</v>
       </c>
       <c r="Q383">
         <v>0</v>
@@ -21941,8 +20708,8 @@
       <c r="B384">
         <v>0</v>
       </c>
-      <c r="C384" t="s">
-        <v>120</v>
+      <c r="C384">
+        <v>819</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -21953,8 +20720,8 @@
       <c r="F384">
         <v>0</v>
       </c>
-      <c r="G384" t="s">
-        <v>26</v>
+      <c r="G384">
+        <v>249</v>
       </c>
       <c r="H384">
         <v>0</v>
@@ -21971,8 +20738,8 @@
       <c r="L384">
         <v>0</v>
       </c>
-      <c r="M384" t="s">
-        <v>286</v>
+      <c r="M384">
+        <v>475</v>
       </c>
       <c r="N384">
         <v>0</v>
@@ -22036,8 +20803,8 @@
       <c r="P385">
         <v>0</v>
       </c>
-      <c r="Q385" t="s">
-        <v>427</v>
+      <c r="Q385">
+        <v>116</v>
       </c>
     </row>
     <row r="386" spans="1:17">
@@ -22056,8 +20823,8 @@
       <c r="E386">
         <v>0</v>
       </c>
-      <c r="F386" t="s">
-        <v>190</v>
+      <c r="F386">
+        <v>308</v>
       </c>
       <c r="G386">
         <v>0</v>
@@ -22100,8 +20867,8 @@
       <c r="B387">
         <v>0</v>
       </c>
-      <c r="C387" t="s">
-        <v>121</v>
+      <c r="C387">
+        <v>956</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -22112,8 +20879,8 @@
       <c r="F387">
         <v>0</v>
       </c>
-      <c r="G387" t="s">
-        <v>231</v>
+      <c r="G387">
+        <v>9</v>
       </c>
       <c r="H387">
         <v>0</v>
@@ -22130,8 +20897,8 @@
       <c r="L387">
         <v>0</v>
       </c>
-      <c r="M387" t="s">
-        <v>219</v>
+      <c r="M387">
+        <v>236</v>
       </c>
       <c r="N387">
         <v>0</v>
@@ -22150,8 +20917,8 @@
       <c r="A388">
         <v>386</v>
       </c>
-      <c r="B388" t="s">
-        <v>84</v>
+      <c r="B388">
+        <v>189</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -22165,8 +20932,8 @@
       <c r="F388">
         <v>0</v>
       </c>
-      <c r="G388" t="s">
-        <v>232</v>
+      <c r="G388">
+        <v>200</v>
       </c>
       <c r="H388">
         <v>0</v>
@@ -22183,8 +20950,8 @@
       <c r="L388">
         <v>0</v>
       </c>
-      <c r="M388" t="s">
-        <v>332</v>
+      <c r="M388">
+        <v>365</v>
       </c>
       <c r="N388">
         <v>0</v>
@@ -22203,8 +20970,8 @@
       <c r="A389">
         <v>387</v>
       </c>
-      <c r="B389" t="s">
-        <v>65</v>
+      <c r="B389">
+        <v>209</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -22215,8 +20982,8 @@
       <c r="E389">
         <v>0</v>
       </c>
-      <c r="F389" t="s">
-        <v>191</v>
+      <c r="F389">
+        <v>380</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -22259,8 +21026,8 @@
       <c r="B390">
         <v>0</v>
       </c>
-      <c r="C390" t="s">
-        <v>122</v>
+      <c r="C390">
+        <v>859</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -22295,8 +21062,8 @@
       <c r="N390">
         <v>0</v>
       </c>
-      <c r="O390" t="s">
-        <v>250</v>
+      <c r="O390">
+        <v>391</v>
       </c>
       <c r="P390">
         <v>0</v>
@@ -22348,8 +21115,8 @@
       <c r="N391">
         <v>0</v>
       </c>
-      <c r="O391" t="s">
-        <v>83</v>
+      <c r="O391">
+        <v>257</v>
       </c>
       <c r="P391">
         <v>0</v>
@@ -22365,8 +21132,8 @@
       <c r="B392">
         <v>0</v>
       </c>
-      <c r="C392" t="s">
-        <v>123</v>
+      <c r="C392">
+        <v>792</v>
       </c>
       <c r="D392">
         <v>0</v>
@@ -22377,8 +21144,8 @@
       <c r="F392">
         <v>0</v>
       </c>
-      <c r="G392" t="s">
-        <v>179</v>
+      <c r="G392">
+        <v>233</v>
       </c>
       <c r="H392">
         <v>0</v>
@@ -22395,8 +21162,8 @@
       <c r="L392">
         <v>0</v>
       </c>
-      <c r="M392" t="s">
-        <v>333</v>
+      <c r="M392">
+        <v>473</v>
       </c>
       <c r="N392">
         <v>0</v>
@@ -22427,8 +21194,8 @@
       <c r="E393">
         <v>0</v>
       </c>
-      <c r="F393" t="s">
-        <v>7</v>
+      <c r="F393">
+        <v>255</v>
       </c>
       <c r="G393">
         <v>0</v>
@@ -22483,8 +21250,8 @@
       <c r="F394">
         <v>0</v>
       </c>
-      <c r="G394" t="s">
-        <v>206</v>
+      <c r="G394">
+        <v>230</v>
       </c>
       <c r="H394">
         <v>0</v>
@@ -22501,8 +21268,8 @@
       <c r="L394">
         <v>0</v>
       </c>
-      <c r="M394" t="s">
-        <v>269</v>
+      <c r="M394">
+        <v>456</v>
       </c>
       <c r="N394">
         <v>0</v>
@@ -22560,8 +21327,8 @@
       <c r="N395">
         <v>0</v>
       </c>
-      <c r="O395" t="s">
-        <v>232</v>
+      <c r="O395">
+        <v>200</v>
       </c>
       <c r="P395">
         <v>0</v>
@@ -22589,8 +21356,8 @@
       <c r="F396">
         <v>0</v>
       </c>
-      <c r="G396" t="s">
-        <v>157</v>
+      <c r="G396">
+        <v>247</v>
       </c>
       <c r="H396">
         <v>0</v>
@@ -22607,8 +21374,8 @@
       <c r="L396">
         <v>0</v>
       </c>
-      <c r="M396" t="s">
-        <v>262</v>
+      <c r="M396">
+        <v>481</v>
       </c>
       <c r="N396">
         <v>0</v>
@@ -22663,14 +21430,14 @@
       <c r="M397">
         <v>0</v>
       </c>
-      <c r="N397" t="s">
-        <v>403</v>
+      <c r="N397">
+        <v>1088</v>
       </c>
       <c r="O397">
         <v>0</v>
       </c>
-      <c r="P397" t="s">
-        <v>24</v>
+      <c r="P397">
+        <v>183</v>
       </c>
       <c r="Q397">
         <v>0</v>
@@ -22719,8 +21486,8 @@
       <c r="N398">
         <v>0</v>
       </c>
-      <c r="O398" t="s">
-        <v>413</v>
+      <c r="O398">
+        <v>396</v>
       </c>
       <c r="P398">
         <v>0</v>
@@ -22745,8 +21512,8 @@
       <c r="E399">
         <v>0</v>
       </c>
-      <c r="F399" t="s">
-        <v>192</v>
+      <c r="F399">
+        <v>143</v>
       </c>
       <c r="G399">
         <v>0</v>
@@ -22798,8 +21565,8 @@
       <c r="E400">
         <v>0</v>
       </c>
-      <c r="F400" t="s">
-        <v>193</v>
+      <c r="F400">
+        <v>309</v>
       </c>
       <c r="G400">
         <v>0</v>
@@ -22878,8 +21645,8 @@
       <c r="N401">
         <v>0</v>
       </c>
-      <c r="O401" t="s">
-        <v>221</v>
+      <c r="O401">
+        <v>98</v>
       </c>
       <c r="P401">
         <v>0</v>
@@ -22907,8 +21674,8 @@
       <c r="F402">
         <v>0</v>
       </c>
-      <c r="G402" t="s">
-        <v>133</v>
+      <c r="G402">
+        <v>210</v>
       </c>
       <c r="H402">
         <v>0</v>
@@ -22925,8 +21692,8 @@
       <c r="L402">
         <v>0</v>
       </c>
-      <c r="M402" t="s">
-        <v>250</v>
+      <c r="M402">
+        <v>391</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -22984,8 +21751,8 @@
       <c r="N403">
         <v>0</v>
       </c>
-      <c r="O403" t="s">
-        <v>10</v>
+      <c r="O403">
+        <v>286</v>
       </c>
       <c r="P403">
         <v>0</v>
@@ -23013,8 +21780,8 @@
       <c r="F404">
         <v>0</v>
       </c>
-      <c r="G404" t="s">
-        <v>77</v>
+      <c r="G404">
+        <v>205</v>
       </c>
       <c r="H404">
         <v>0</v>
@@ -23031,8 +21798,8 @@
       <c r="L404">
         <v>0</v>
       </c>
-      <c r="M404" t="s">
-        <v>322</v>
+      <c r="M404">
+        <v>400</v>
       </c>
       <c r="N404">
         <v>0</v>
